--- a/rvc_logs_extraction/train_stats.xlsx
+++ b/rvc_logs_extraction/train_stats.xlsx
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>epoch</t>
   </si>
   <si>
     <t>loss_disc</t>
@@ -427,3948 +424,5394 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>4.3899998664855957</v>
       </c>
       <c r="B2">
-        <v>4.3899998664855957</v>
+        <v>4.6360001564025879</v>
       </c>
       <c r="C2">
-        <v>4.6360001564025879</v>
+        <v>14.265000343322754</v>
       </c>
       <c r="D2">
-        <v>14.265000343322754</v>
+        <v>28.125999450683594</v>
       </c>
       <c r="E2">
-        <v>28.125999450683594</v>
-      </c>
-      <c r="F2">
         <v>6.8959999084472656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>4.2220001220703125</v>
       </c>
       <c r="B3">
-        <v>4.2220001220703125</v>
+        <v>3.1809999942779541</v>
       </c>
       <c r="C3">
-        <v>3.1809999942779541</v>
+        <v>7.310999870300293</v>
       </c>
       <c r="D3">
-        <v>7.310999870300293</v>
+        <v>18.642000198364258</v>
       </c>
       <c r="E3">
-        <v>18.642000198364258</v>
-      </c>
-      <c r="F3">
         <v>2.1610000133514404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>4.1170001029968262</v>
       </c>
       <c r="B4">
-        <v>4.1170001029968262</v>
+        <v>3.2860000133514404</v>
       </c>
       <c r="C4">
-        <v>3.2860000133514404</v>
+        <v>8.7370004653930664</v>
       </c>
       <c r="D4">
-        <v>8.7370004653930664</v>
+        <v>19.062000274658203</v>
       </c>
       <c r="E4">
-        <v>19.062000274658203</v>
-      </c>
-      <c r="F4">
         <v>2.5720000267028809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0529999732971191</v>
       </c>
       <c r="B5">
-        <v>4.0529999732971191</v>
+        <v>3.3450000286102295</v>
       </c>
       <c r="C5">
-        <v>3.3450000286102295</v>
+        <v>10.789999961853027</v>
       </c>
       <c r="D5">
-        <v>10.789999961853027</v>
+        <v>20.461999893188477</v>
       </c>
       <c r="E5">
-        <v>20.461999893188477</v>
-      </c>
-      <c r="F5">
         <v>1.7799999713897705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4.0960001945495605</v>
       </c>
       <c r="B6">
-        <v>4.0960001945495605</v>
+        <v>3.0350000858306885</v>
       </c>
       <c r="C6">
-        <v>3.0350000858306885</v>
+        <v>8.7279996871948242</v>
       </c>
       <c r="D6">
-        <v>8.7279996871948242</v>
+        <v>19.006999969482422</v>
       </c>
       <c r="E6">
-        <v>19.006999969482422</v>
-      </c>
-      <c r="F6">
         <v>1.6820000410079956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>4.0970001220703125</v>
       </c>
       <c r="B7">
-        <v>4.0970001220703125</v>
+        <v>3.0230000019073486</v>
       </c>
       <c r="C7">
-        <v>3.0230000019073486</v>
+        <v>11.039999961853027</v>
       </c>
       <c r="D7">
-        <v>11.039999961853027</v>
+        <v>19.910999298095703</v>
       </c>
       <c r="E7">
-        <v>19.910999298095703</v>
-      </c>
-      <c r="F7">
         <v>1.8489999771118164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>4.2210001945495605</v>
       </c>
       <c r="B8">
-        <v>4.2210001945495605</v>
+        <v>3.315000057220459</v>
       </c>
       <c r="C8">
-        <v>3.315000057220459</v>
+        <v>8.5749998092651367</v>
       </c>
       <c r="D8">
-        <v>8.5749998092651367</v>
+        <v>18.759000778198242</v>
       </c>
       <c r="E8">
-        <v>18.759000778198242</v>
-      </c>
-      <c r="F8">
         <v>1.9029999971389771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>4.1100001335144043</v>
       </c>
       <c r="B9">
-        <v>4.1100001335144043</v>
+        <v>3.2699999809265137</v>
       </c>
       <c r="C9">
-        <v>3.2699999809265137</v>
+        <v>8.449000358581543</v>
       </c>
       <c r="D9">
-        <v>8.449000358581543</v>
+        <v>19.416000366210938</v>
       </c>
       <c r="E9">
-        <v>19.416000366210938</v>
-      </c>
-      <c r="F9">
         <v>1.4910000562667847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>4.2090001106262207</v>
       </c>
       <c r="B10">
-        <v>4.2090001106262207</v>
+        <v>2.8340001106262207</v>
       </c>
       <c r="C10">
-        <v>2.8340001106262207</v>
+        <v>8.3610000610351562</v>
       </c>
       <c r="D10">
-        <v>8.3610000610351562</v>
+        <v>18.688999176025391</v>
       </c>
       <c r="E10">
-        <v>18.688999176025391</v>
-      </c>
-      <c r="F10">
         <v>1.2480000257492065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>3.7060000896453857</v>
       </c>
       <c r="B11">
-        <v>3.7060000896453857</v>
+        <v>3.375999927520752</v>
       </c>
       <c r="C11">
-        <v>3.375999927520752</v>
+        <v>14.364999771118164</v>
       </c>
       <c r="D11">
-        <v>14.364999771118164</v>
+        <v>20.153999328613281</v>
       </c>
       <c r="E11">
-        <v>20.153999328613281</v>
-      </c>
-      <c r="F11">
         <v>1.2619999647140503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>4.1919999122619629</v>
       </c>
       <c r="B12">
-        <v>4.1919999122619629</v>
+        <v>2.9440000057220459</v>
       </c>
       <c r="C12">
-        <v>2.9440000057220459</v>
+        <v>9.9350004196166992</v>
       </c>
       <c r="D12">
-        <v>9.9350004196166992</v>
+        <v>19.27400016784668</v>
       </c>
       <c r="E12">
-        <v>19.27400016784668</v>
-      </c>
-      <c r="F12">
         <v>1.6339999437332153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>3.9270000457763672</v>
       </c>
       <c r="B13">
-        <v>3.9270000457763672</v>
+        <v>3.3110001087188721</v>
       </c>
       <c r="C13">
-        <v>3.3110001087188721</v>
+        <v>11.092000007629395</v>
       </c>
       <c r="D13">
-        <v>11.092000007629395</v>
+        <v>19.908000946044922</v>
       </c>
       <c r="E13">
-        <v>19.908000946044922</v>
-      </c>
-      <c r="F13">
         <v>1.4119999408721924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>4.2519998550415039</v>
       </c>
       <c r="B14">
-        <v>4.2519998550415039</v>
+        <v>3.2019999027252197</v>
       </c>
       <c r="C14">
-        <v>3.2019999027252197</v>
+        <v>10.706000328063965</v>
       </c>
       <c r="D14">
-        <v>10.706000328063965</v>
+        <v>19.054000854492188</v>
       </c>
       <c r="E14">
-        <v>19.054000854492188</v>
-      </c>
-      <c r="F14">
         <v>0.54400002956390381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>4.1440000534057617</v>
       </c>
       <c r="B15">
-        <v>4.1440000534057617</v>
+        <v>3.3139998912811279</v>
       </c>
       <c r="C15">
-        <v>3.3139998912811279</v>
+        <v>8.4090003967285156</v>
       </c>
       <c r="D15">
-        <v>8.4090003967285156</v>
+        <v>19.52400016784668</v>
       </c>
       <c r="E15">
-        <v>19.52400016784668</v>
-      </c>
-      <c r="F15">
         <v>1.1890000104904175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>4.1630001068115234</v>
       </c>
       <c r="B16">
-        <v>4.1630001068115234</v>
+        <v>3.3320000171661377</v>
       </c>
       <c r="C16">
-        <v>3.3320000171661377</v>
+        <v>8.8850002288818359</v>
       </c>
       <c r="D16">
-        <v>8.8850002288818359</v>
+        <v>19.334999084472656</v>
       </c>
       <c r="E16">
-        <v>19.334999084472656</v>
-      </c>
-      <c r="F16">
         <v>1.1440000534057617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>3.9570000171661377</v>
       </c>
       <c r="B17">
-        <v>3.9570000171661377</v>
+        <v>3.0610001087188721</v>
       </c>
       <c r="C17">
-        <v>3.0610001087188721</v>
+        <v>10.604000091552734</v>
       </c>
       <c r="D17">
-        <v>10.604000091552734</v>
+        <v>19.701999664306641</v>
       </c>
       <c r="E17">
-        <v>19.701999664306641</v>
-      </c>
-      <c r="F17">
         <v>1.4270000457763672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>4.184999942779541</v>
       </c>
       <c r="B18">
-        <v>4.184999942779541</v>
+        <v>3.0190000534057617</v>
       </c>
       <c r="C18">
-        <v>3.0190000534057617</v>
+        <v>10.039999961853027</v>
       </c>
       <c r="D18">
-        <v>10.039999961853027</v>
+        <v>19.975000381469727</v>
       </c>
       <c r="E18">
-        <v>19.975000381469727</v>
-      </c>
-      <c r="F18">
         <v>1.4049999713897705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>3.8710000514984131</v>
       </c>
       <c r="B19">
-        <v>3.8710000514984131</v>
+        <v>3.4849998950958252</v>
       </c>
       <c r="C19">
-        <v>3.4849998950958252</v>
+        <v>12.883000373840332</v>
       </c>
       <c r="D19">
-        <v>12.883000373840332</v>
+        <v>20.469999313354492</v>
       </c>
       <c r="E19">
-        <v>20.469999313354492</v>
-      </c>
-      <c r="F19">
         <v>0.92500001192092896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>3.9600000381469727</v>
       </c>
       <c r="B20">
-        <v>3.9600000381469727</v>
+        <v>3.0090000629425049</v>
       </c>
       <c r="C20">
-        <v>3.0090000629425049</v>
+        <v>9.3219995498657227</v>
       </c>
       <c r="D20">
-        <v>9.3219995498657227</v>
+        <v>18.486000061035156</v>
       </c>
       <c r="E20">
-        <v>18.486000061035156</v>
-      </c>
-      <c r="F20">
         <v>1.2419999837875366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>3.8420000076293945</v>
       </c>
       <c r="B21">
-        <v>3.8420000076293945</v>
+        <v>3.7790000438690186</v>
       </c>
       <c r="C21">
-        <v>3.7790000438690186</v>
+        <v>10.611000061035156</v>
       </c>
       <c r="D21">
-        <v>10.611000061035156</v>
+        <v>19.253000259399414</v>
       </c>
       <c r="E21">
-        <v>19.253000259399414</v>
-      </c>
-      <c r="F21">
         <v>1.0900000333786011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>3.9849998950958252</v>
       </c>
       <c r="B22">
-        <v>3.9849998950958252</v>
+        <v>3.3320000171661377</v>
       </c>
       <c r="C22">
-        <v>3.3320000171661377</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="D22">
-        <v>9.6000003814697266</v>
+        <v>19.277000427246094</v>
       </c>
       <c r="E22">
-        <v>19.277000427246094</v>
-      </c>
-      <c r="F22">
         <v>1.1360000371932983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>3.8710000514984131</v>
       </c>
       <c r="B23">
-        <v>3.8710000514984131</v>
+        <v>3.4249999523162842</v>
       </c>
       <c r="C23">
-        <v>3.4249999523162842</v>
+        <v>9.2790002822875977</v>
       </c>
       <c r="D23">
-        <v>9.2790002822875977</v>
+        <v>18.756000518798828</v>
       </c>
       <c r="E23">
-        <v>18.756000518798828</v>
-      </c>
-      <c r="F23">
         <v>0.95599997043609619</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>4.0760002136230469</v>
       </c>
       <c r="B24">
-        <v>4.0760002136230469</v>
+        <v>3.0559999942779541</v>
       </c>
       <c r="C24">
-        <v>3.0559999942779541</v>
+        <v>9.7229995727539062</v>
       </c>
       <c r="D24">
-        <v>9.7229995727539062</v>
+        <v>18.131999969482422</v>
       </c>
       <c r="E24">
-        <v>18.131999969482422</v>
-      </c>
-      <c r="F24">
         <v>1.4509999752044678</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3.9000000953674316</v>
       </c>
       <c r="B25">
-        <v>3.9000000953674316</v>
+        <v>2.9769999980926514</v>
       </c>
       <c r="C25">
-        <v>2.9769999980926514</v>
+        <v>7.429999828338623</v>
       </c>
       <c r="D25">
-        <v>7.429999828338623</v>
+        <v>19.155000686645508</v>
       </c>
       <c r="E25">
-        <v>19.155000686645508</v>
-      </c>
-      <c r="F25">
         <v>1.4140000343322754</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>3.6700000762939453</v>
       </c>
       <c r="B26">
-        <v>3.6700000762939453</v>
+        <v>3.6559998989105225</v>
       </c>
       <c r="C26">
-        <v>3.6559998989105225</v>
+        <v>12.680000305175781</v>
       </c>
       <c r="D26">
-        <v>12.680000305175781</v>
+        <v>19.604999542236328</v>
       </c>
       <c r="E26">
-        <v>19.604999542236328</v>
-      </c>
-      <c r="F26">
         <v>1.0290000438690186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>4.1339998245239258</v>
       </c>
       <c r="B27">
-        <v>4.1339998245239258</v>
+        <v>3.3010001182556152</v>
       </c>
       <c r="C27">
-        <v>3.3010001182556152</v>
+        <v>9.2980003356933594</v>
       </c>
       <c r="D27">
-        <v>9.2980003356933594</v>
+        <v>18.440999984741211</v>
       </c>
       <c r="E27">
-        <v>18.440999984741211</v>
-      </c>
-      <c r="F27">
         <v>0.85199999809265137</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>4.0110001564025879</v>
       </c>
       <c r="B28">
-        <v>4.0110001564025879</v>
+        <v>3.2660000324249268</v>
       </c>
       <c r="C28">
-        <v>3.2660000324249268</v>
+        <v>9.2010002136230469</v>
       </c>
       <c r="D28">
-        <v>9.2010002136230469</v>
+        <v>18.382999420166016</v>
       </c>
       <c r="E28">
-        <v>18.382999420166016</v>
-      </c>
-      <c r="F28">
         <v>1.2400000095367432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>3.5750000476837158</v>
       </c>
       <c r="B29">
-        <v>3.5750000476837158</v>
+        <v>3.6180000305175781</v>
       </c>
       <c r="C29">
-        <v>3.6180000305175781</v>
+        <v>12.111000061035156</v>
       </c>
       <c r="D29">
-        <v>12.111000061035156</v>
+        <v>19.643999099731445</v>
       </c>
       <c r="E29">
-        <v>19.643999099731445</v>
-      </c>
-      <c r="F29">
         <v>1.4029999971389771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>3.8489999771118164</v>
       </c>
       <c r="B30">
-        <v>3.8489999771118164</v>
+        <v>3.1080000400543213</v>
       </c>
       <c r="C30">
-        <v>3.1080000400543213</v>
+        <v>10.560000419616699</v>
       </c>
       <c r="D30">
-        <v>10.560000419616699</v>
+        <v>18.319000244140625</v>
       </c>
       <c r="E30">
-        <v>18.319000244140625</v>
-      </c>
-      <c r="F30">
         <v>1.3550000190734863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>4.054999828338623</v>
       </c>
       <c r="B31">
-        <v>4.054999828338623</v>
+        <v>3.2539999485015869</v>
       </c>
       <c r="C31">
-        <v>3.2539999485015869</v>
+        <v>11.319999694824219</v>
       </c>
       <c r="D31">
-        <v>11.319999694824219</v>
+        <v>19.628999710083008</v>
       </c>
       <c r="E31">
-        <v>19.628999710083008</v>
-      </c>
-      <c r="F31">
         <v>0.82200002670288086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>3.7799999713897705</v>
       </c>
       <c r="B32">
-        <v>3.7799999713897705</v>
+        <v>3.3459999561309814</v>
       </c>
       <c r="C32">
-        <v>3.3459999561309814</v>
+        <v>9.4209995269775391</v>
       </c>
       <c r="D32">
-        <v>9.4209995269775391</v>
+        <v>18.577999114990234</v>
       </c>
       <c r="E32">
-        <v>18.577999114990234</v>
-      </c>
-      <c r="F32">
         <v>1.2380000352859497</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>4.0510001182556152</v>
       </c>
       <c r="B33">
-        <v>4.0510001182556152</v>
+        <v>3.2939999103546143</v>
       </c>
       <c r="C33">
-        <v>3.2939999103546143</v>
+        <v>10.090000152587891</v>
       </c>
       <c r="D33">
-        <v>10.090000152587891</v>
+        <v>19.847999572753906</v>
       </c>
       <c r="E33">
-        <v>19.847999572753906</v>
-      </c>
-      <c r="F33">
         <v>1.2970000505447388</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>4.0380001068115234</v>
       </c>
       <c r="B34">
-        <v>4.0380001068115234</v>
+        <v>3.1819999217987061</v>
       </c>
       <c r="C34">
-        <v>3.1819999217987061</v>
+        <v>8.069000244140625</v>
       </c>
       <c r="D34">
-        <v>8.069000244140625</v>
+        <v>18.566999435424805</v>
       </c>
       <c r="E34">
-        <v>18.566999435424805</v>
-      </c>
-      <c r="F34">
         <v>0.84200000762939453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>3.8919999599456787</v>
       </c>
       <c r="B35">
-        <v>3.8919999599456787</v>
+        <v>3.2679998874664307</v>
       </c>
       <c r="C35">
-        <v>3.2679998874664307</v>
+        <v>12.215999603271484</v>
       </c>
       <c r="D35">
-        <v>12.215999603271484</v>
+        <v>19.016000747680664</v>
       </c>
       <c r="E35">
-        <v>19.016000747680664</v>
-      </c>
-      <c r="F35">
         <v>1.0659999847412109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>3.8259999752044678</v>
       </c>
       <c r="B36">
-        <v>3.8259999752044678</v>
+        <v>3.4200000762939453</v>
       </c>
       <c r="C36">
-        <v>3.4200000762939453</v>
+        <v>10.180000305175781</v>
       </c>
       <c r="D36">
-        <v>10.180000305175781</v>
+        <v>19.290000915527344</v>
       </c>
       <c r="E36">
-        <v>19.290000915527344</v>
-      </c>
-      <c r="F36">
         <v>0.73199999332427979</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>4.0669999122619629</v>
       </c>
       <c r="B37">
-        <v>4.0669999122619629</v>
+        <v>3.4089999198913574</v>
       </c>
       <c r="C37">
-        <v>3.4089999198913574</v>
+        <v>9.5380001068115234</v>
       </c>
       <c r="D37">
-        <v>9.5380001068115234</v>
+        <v>19.450000762939453</v>
       </c>
       <c r="E37">
-        <v>19.450000762939453</v>
-      </c>
-      <c r="F37">
         <v>1.0759999752044678</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>3.8589999675750732</v>
       </c>
       <c r="B38">
-        <v>3.8589999675750732</v>
+        <v>3.130000114440918</v>
       </c>
       <c r="C38">
-        <v>3.130000114440918</v>
+        <v>8.3210000991821289</v>
       </c>
       <c r="D38">
-        <v>8.3210000991821289</v>
+        <v>17.173000335693359</v>
       </c>
       <c r="E38">
-        <v>17.173000335693359</v>
-      </c>
-      <c r="F38">
         <v>1.468999981880188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>3.8420000076293945</v>
       </c>
       <c r="B39">
-        <v>3.8420000076293945</v>
+        <v>3.1289999485015869</v>
       </c>
       <c r="C39">
-        <v>3.1289999485015869</v>
+        <v>9.5039997100830078</v>
       </c>
       <c r="D39">
-        <v>9.5039997100830078</v>
+        <v>16.868999481201172</v>
       </c>
       <c r="E39">
-        <v>16.868999481201172</v>
-      </c>
-      <c r="F39">
         <v>0.77799999713897705</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>3.6159999370574951</v>
       </c>
       <c r="B40">
-        <v>3.6159999370574951</v>
+        <v>3.4010000228881836</v>
       </c>
       <c r="C40">
-        <v>3.4010000228881836</v>
+        <v>11.756999969482422</v>
       </c>
       <c r="D40">
-        <v>11.756999969482422</v>
+        <v>18.992000579833984</v>
       </c>
       <c r="E40">
-        <v>18.992000579833984</v>
-      </c>
-      <c r="F40">
         <v>0.77399998903274536</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>3.9779999256134033</v>
       </c>
       <c r="B41">
-        <v>3.9779999256134033</v>
+        <v>3.4049999713897705</v>
       </c>
       <c r="C41">
-        <v>3.4049999713897705</v>
+        <v>12.189999580383301</v>
       </c>
       <c r="D41">
-        <v>12.189999580383301</v>
+        <v>19.132999420166016</v>
       </c>
       <c r="E41">
-        <v>19.132999420166016</v>
-      </c>
-      <c r="F41">
         <v>1.3309999704360962</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>4.0320000648498535</v>
       </c>
       <c r="B42">
-        <v>4.0320000648498535</v>
+        <v>3.0490000247955322</v>
       </c>
       <c r="C42">
-        <v>3.0490000247955322</v>
+        <v>8.5989999771118164</v>
       </c>
       <c r="D42">
-        <v>8.5989999771118164</v>
+        <v>19.363000869750977</v>
       </c>
       <c r="E42">
-        <v>19.363000869750977</v>
-      </c>
-      <c r="F42">
         <v>1.3559999465942383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>3.8970000743865967</v>
       </c>
       <c r="B43">
-        <v>3.8970000743865967</v>
+        <v>3.3369998931884766</v>
       </c>
       <c r="C43">
-        <v>3.3369998931884766</v>
+        <v>9.8400001525878906</v>
       </c>
       <c r="D43">
-        <v>9.8400001525878906</v>
+        <v>19.02400016784668</v>
       </c>
       <c r="E43">
-        <v>19.02400016784668</v>
-      </c>
-      <c r="F43">
         <v>1.1299999952316284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>3.8859999179840088</v>
       </c>
       <c r="B44">
-        <v>3.8859999179840088</v>
+        <v>3.0940001010894775</v>
       </c>
       <c r="C44">
-        <v>3.0940001010894775</v>
+        <v>10.342000007629395</v>
       </c>
       <c r="D44">
-        <v>10.342000007629395</v>
+        <v>19.027999877929688</v>
       </c>
       <c r="E44">
-        <v>19.027999877929688</v>
-      </c>
-      <c r="F44">
         <v>1.6180000305175781</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>3.9409999847412109</v>
       </c>
       <c r="B45">
-        <v>3.9409999847412109</v>
+        <v>3.0810000896453857</v>
       </c>
       <c r="C45">
-        <v>3.0810000896453857</v>
+        <v>9.9739999771118164</v>
       </c>
       <c r="D45">
-        <v>9.9739999771118164</v>
+        <v>18.447999954223633</v>
       </c>
       <c r="E45">
-        <v>18.447999954223633</v>
-      </c>
-      <c r="F45">
         <v>1.2760000228881836</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>3.6979999542236328</v>
       </c>
       <c r="B46">
-        <v>3.6979999542236328</v>
+        <v>3.4049999713897705</v>
       </c>
       <c r="C46">
-        <v>3.4049999713897705</v>
+        <v>9.7349996566772461</v>
       </c>
       <c r="D46">
-        <v>9.7349996566772461</v>
+        <v>19.169000625610352</v>
       </c>
       <c r="E46">
-        <v>19.169000625610352</v>
-      </c>
-      <c r="F46">
         <v>0.83300000429153442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>3.8519999980926514</v>
       </c>
       <c r="B47">
-        <v>3.8519999980926514</v>
+        <v>3.2620000839233398</v>
       </c>
       <c r="C47">
-        <v>3.2620000839233398</v>
+        <v>7.9650001525878906</v>
       </c>
       <c r="D47">
-        <v>7.9650001525878906</v>
+        <v>17.958999633789062</v>
       </c>
       <c r="E47">
-        <v>17.958999633789062</v>
-      </c>
-      <c r="F47">
         <v>1.0470000505447388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>3.7939999103546143</v>
       </c>
       <c r="B48">
-        <v>3.7939999103546143</v>
+        <v>3.4130001068115234</v>
       </c>
       <c r="C48">
-        <v>3.4130001068115234</v>
+        <v>11.718000411987305</v>
       </c>
       <c r="D48">
-        <v>11.718000411987305</v>
+        <v>19.388999938964844</v>
       </c>
       <c r="E48">
-        <v>19.388999938964844</v>
-      </c>
-      <c r="F48">
         <v>1.1529999971389771</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>3.7730000019073486</v>
       </c>
       <c r="B49">
-        <v>3.7730000019073486</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="C49">
-        <v>3.630000114440918</v>
+        <v>10.517999649047852</v>
       </c>
       <c r="D49">
-        <v>10.517999649047852</v>
+        <v>18.757999420166016</v>
       </c>
       <c r="E49">
-        <v>18.757999420166016</v>
-      </c>
-      <c r="F49">
         <v>0.76200002431869507</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>3.744999885559082</v>
       </c>
       <c r="B50">
-        <v>3.744999885559082</v>
+        <v>3.4149999618530273</v>
       </c>
       <c r="C50">
-        <v>3.4149999618530273</v>
+        <v>12.369000434875488</v>
       </c>
       <c r="D50">
-        <v>12.369000434875488</v>
+        <v>18.603000640869141</v>
       </c>
       <c r="E50">
-        <v>18.603000640869141</v>
-      </c>
-      <c r="F50">
         <v>1.2330000400543213</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>3.8269999027252197</v>
       </c>
       <c r="B51">
-        <v>3.8269999027252197</v>
+        <v>3.621999979019165</v>
       </c>
       <c r="C51">
-        <v>3.621999979019165</v>
+        <v>10.199000358581543</v>
       </c>
       <c r="D51">
-        <v>10.199000358581543</v>
+        <v>18.854999542236328</v>
       </c>
       <c r="E51">
-        <v>18.854999542236328</v>
-      </c>
-      <c r="F51">
         <v>0.88899999856948853</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>3.7049999237060547</v>
       </c>
       <c r="B52">
-        <v>3.7049999237060547</v>
+        <v>3.5710000991821289</v>
       </c>
       <c r="C52">
-        <v>3.5710000991821289</v>
+        <v>11.52299976348877</v>
       </c>
       <c r="D52">
-        <v>11.52299976348877</v>
+        <v>18.809000015258789</v>
       </c>
       <c r="E52">
-        <v>18.809000015258789</v>
-      </c>
-      <c r="F52">
         <v>1.312999963760376</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>3.9649999141693115</v>
       </c>
       <c r="B53">
-        <v>3.9649999141693115</v>
+        <v>3.2360000610351562</v>
       </c>
       <c r="C53">
-        <v>3.2360000610351562</v>
+        <v>10.310000419616699</v>
       </c>
       <c r="D53">
-        <v>10.310000419616699</v>
+        <v>19.670000076293945</v>
       </c>
       <c r="E53">
-        <v>19.670000076293945</v>
-      </c>
-      <c r="F53">
         <v>0.72399997711181641</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>3.9630000591278076</v>
       </c>
       <c r="B54">
-        <v>3.9630000591278076</v>
+        <v>3.3710000514984131</v>
       </c>
       <c r="C54">
-        <v>3.3710000514984131</v>
+        <v>8.2150001525878906</v>
       </c>
       <c r="D54">
-        <v>8.2150001525878906</v>
+        <v>15.963000297546387</v>
       </c>
       <c r="E54">
-        <v>15.963000297546387</v>
-      </c>
-      <c r="F54">
         <v>0.87999999523162842</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>4.184999942779541</v>
       </c>
       <c r="B55">
-        <v>4.184999942779541</v>
+        <v>2.9019999504089355</v>
       </c>
       <c r="C55">
-        <v>2.9019999504089355</v>
+        <v>5.0500001907348633</v>
       </c>
       <c r="D55">
-        <v>5.0500001907348633</v>
+        <v>16.593000411987305</v>
       </c>
       <c r="E55">
-        <v>16.593000411987305</v>
-      </c>
-      <c r="F55">
         <v>0.63499999046325684</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>3.749000072479248</v>
       </c>
       <c r="B56">
-        <v>3.749000072479248</v>
+        <v>3.3190000057220459</v>
       </c>
       <c r="C56">
-        <v>3.3190000057220459</v>
+        <v>8.3719997406005859</v>
       </c>
       <c r="D56">
-        <v>8.3719997406005859</v>
+        <v>18.613000869750977</v>
       </c>
       <c r="E56">
-        <v>18.613000869750977</v>
-      </c>
-      <c r="F56">
         <v>0.83399999141693115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>3.7639999389648438</v>
       </c>
       <c r="B57">
-        <v>3.7639999389648438</v>
+        <v>3.2149999141693115</v>
       </c>
       <c r="C57">
-        <v>3.2149999141693115</v>
+        <v>9.6649999618530273</v>
       </c>
       <c r="D57">
-        <v>9.6649999618530273</v>
+        <v>17.601999282836914</v>
       </c>
       <c r="E57">
-        <v>17.601999282836914</v>
-      </c>
-      <c r="F57">
         <v>0.11999999731779099</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>3.8410000801086426</v>
       </c>
       <c r="B58">
-        <v>3.8410000801086426</v>
+        <v>3.5350000858306885</v>
       </c>
       <c r="C58">
-        <v>3.5350000858306885</v>
+        <v>12.684000015258789</v>
       </c>
       <c r="D58">
-        <v>12.684000015258789</v>
+        <v>19.62700080871582</v>
       </c>
       <c r="E58">
-        <v>19.62700080871582</v>
-      </c>
-      <c r="F58">
         <v>1.0499999523162842</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>3.9110000133514404</v>
       </c>
       <c r="B59">
-        <v>3.9110000133514404</v>
+        <v>3.2360000610351562</v>
       </c>
       <c r="C59">
-        <v>3.2360000610351562</v>
+        <v>9.2679996490478516</v>
       </c>
       <c r="D59">
-        <v>9.2679996490478516</v>
+        <v>17.98900032043457</v>
       </c>
       <c r="E59">
-        <v>17.98900032043457</v>
-      </c>
-      <c r="F59">
         <v>0.87999999523162842</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>3.1429998874664307</v>
       </c>
       <c r="B60">
-        <v>3.1429998874664307</v>
+        <v>3.7980000972747803</v>
       </c>
       <c r="C60">
-        <v>3.7980000972747803</v>
+        <v>14.152999877929688</v>
       </c>
       <c r="D60">
-        <v>14.152999877929688</v>
+        <v>18.569000244140625</v>
       </c>
       <c r="E60">
-        <v>18.569000244140625</v>
-      </c>
-      <c r="F60">
         <v>0.34999999403953552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="B61">
-        <v>4.059999942779541</v>
+        <v>3.122999906539917</v>
       </c>
       <c r="C61">
-        <v>3.122999906539917</v>
+        <v>9.1680002212524414</v>
       </c>
       <c r="D61">
-        <v>9.1680002212524414</v>
+        <v>18.548000335693359</v>
       </c>
       <c r="E61">
-        <v>18.548000335693359</v>
-      </c>
-      <c r="F61">
         <v>1.1799999475479126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>3.9040000438690186</v>
       </c>
       <c r="B62">
-        <v>3.9040000438690186</v>
+        <v>3.2149999141693115</v>
       </c>
       <c r="C62">
-        <v>3.2149999141693115</v>
+        <v>8.5270004272460938</v>
       </c>
       <c r="D62">
-        <v>8.5270004272460938</v>
+        <v>18.648000717163086</v>
       </c>
       <c r="E62">
-        <v>18.648000717163086</v>
-      </c>
-      <c r="F62">
         <v>1.0559999942779541</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>4.060999870300293</v>
       </c>
       <c r="B63">
-        <v>4.060999870300293</v>
+        <v>2.9849998950958252</v>
       </c>
       <c r="C63">
-        <v>2.9849998950958252</v>
+        <v>8.4010000228881836</v>
       </c>
       <c r="D63">
-        <v>8.4010000228881836</v>
+        <v>18.437999725341797</v>
       </c>
       <c r="E63">
-        <v>18.437999725341797</v>
-      </c>
-      <c r="F63">
         <v>0.9570000171661377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>3.8640000820159912</v>
       </c>
       <c r="B64">
-        <v>3.8640000820159912</v>
+        <v>3.1579999923706055</v>
       </c>
       <c r="C64">
-        <v>3.1579999923706055</v>
+        <v>10.574999809265137</v>
       </c>
       <c r="D64">
-        <v>10.574999809265137</v>
+        <v>17.290000915527344</v>
       </c>
       <c r="E64">
-        <v>17.290000915527344</v>
-      </c>
-      <c r="F64">
         <v>0.91100001335144043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>3.8840000629425049</v>
       </c>
       <c r="B65">
-        <v>3.8840000629425049</v>
+        <v>3.3159999847412109</v>
       </c>
       <c r="C65">
-        <v>3.3159999847412109</v>
+        <v>11.513999938964844</v>
       </c>
       <c r="D65">
-        <v>11.513999938964844</v>
+        <v>18.802999496459961</v>
       </c>
       <c r="E65">
-        <v>18.802999496459961</v>
-      </c>
-      <c r="F65">
         <v>0.73199999332427979</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>3.6570000648498535</v>
       </c>
       <c r="B66">
-        <v>3.6570000648498535</v>
+        <v>3.5739998817443848</v>
       </c>
       <c r="C66">
-        <v>3.5739998817443848</v>
+        <v>11.324999809265137</v>
       </c>
       <c r="D66">
-        <v>11.324999809265137</v>
+        <v>19.020000457763672</v>
       </c>
       <c r="E66">
-        <v>19.020000457763672</v>
-      </c>
-      <c r="F66">
         <v>0.66900002956390381</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>3.9019999504089355</v>
       </c>
       <c r="B67">
-        <v>3.9019999504089355</v>
+        <v>3.2750000953674316</v>
       </c>
       <c r="C67">
-        <v>3.2750000953674316</v>
+        <v>8.8879995346069336</v>
       </c>
       <c r="D67">
-        <v>8.8879995346069336</v>
+        <v>17.058000564575195</v>
       </c>
       <c r="E67">
-        <v>17.058000564575195</v>
-      </c>
-      <c r="F67">
         <v>0.64800000190734863</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>3.5820000171661377</v>
       </c>
       <c r="B68">
-        <v>3.5820000171661377</v>
+        <v>3.3259999752044678</v>
       </c>
       <c r="C68">
-        <v>3.3259999752044678</v>
+        <v>12.281000137329102</v>
       </c>
       <c r="D68">
-        <v>12.281000137329102</v>
+        <v>18.954000473022461</v>
       </c>
       <c r="E68">
-        <v>18.954000473022461</v>
-      </c>
-      <c r="F68">
         <v>0.17499999701976776</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>3.5810000896453857</v>
       </c>
       <c r="B69">
-        <v>3.5810000896453857</v>
+        <v>3.4639999866485596</v>
       </c>
       <c r="C69">
-        <v>3.4639999866485596</v>
+        <v>11.737000465393066</v>
       </c>
       <c r="D69">
-        <v>11.737000465393066</v>
+        <v>18.861000061035156</v>
       </c>
       <c r="E69">
-        <v>18.861000061035156</v>
-      </c>
-      <c r="F69">
         <v>0.73100000619888306</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>3.7709999084472656</v>
       </c>
       <c r="B70">
-        <v>3.7709999084472656</v>
+        <v>3.2409999370574951</v>
       </c>
       <c r="C70">
-        <v>3.2409999370574951</v>
+        <v>11.758000373840332</v>
       </c>
       <c r="D70">
-        <v>11.758000373840332</v>
+        <v>18.898000717163086</v>
       </c>
       <c r="E70">
-        <v>18.898000717163086</v>
-      </c>
-      <c r="F70">
         <v>0.97699999809265137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>4.0060000419616699</v>
       </c>
       <c r="B71">
-        <v>4.0060000419616699</v>
+        <v>3.3580000400543213</v>
       </c>
       <c r="C71">
-        <v>3.3580000400543213</v>
+        <v>8.6020002365112305</v>
       </c>
       <c r="D71">
-        <v>8.6020002365112305</v>
+        <v>18.205999374389648</v>
       </c>
       <c r="E71">
-        <v>18.205999374389648</v>
-      </c>
-      <c r="F71">
         <v>0.67900002002716064</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>3.7960000038146973</v>
       </c>
       <c r="B72">
-        <v>3.7960000038146973</v>
+        <v>3.7190001010894775</v>
       </c>
       <c r="C72">
-        <v>3.7190001010894775</v>
+        <v>11.472999572753906</v>
       </c>
       <c r="D72">
-        <v>11.472999572753906</v>
+        <v>18.541000366210938</v>
       </c>
       <c r="E72">
-        <v>18.541000366210938</v>
-      </c>
-      <c r="F72">
         <v>0.87699997425079346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>3.8640000820159912</v>
       </c>
       <c r="B73">
-        <v>3.8640000820159912</v>
+        <v>3.2880001068115234</v>
       </c>
       <c r="C73">
-        <v>3.2880001068115234</v>
+        <v>9.2159996032714844</v>
       </c>
       <c r="D73">
-        <v>9.2159996032714844</v>
+        <v>18.993999481201172</v>
       </c>
       <c r="E73">
-        <v>18.993999481201172</v>
-      </c>
-      <c r="F73">
         <v>1.4520000219345093</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="B74">
-        <v>3.880000114440918</v>
+        <v>3.2569999694824219</v>
       </c>
       <c r="C74">
-        <v>3.2569999694824219</v>
+        <v>11.295000076293945</v>
       </c>
       <c r="D74">
-        <v>11.295000076293945</v>
+        <v>18.309000015258789</v>
       </c>
       <c r="E74">
-        <v>18.309000015258789</v>
-      </c>
-      <c r="F74">
         <v>0.69700002670288086</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>3.809999942779541</v>
       </c>
       <c r="B75">
-        <v>3.809999942779541</v>
+        <v>3.3469998836517334</v>
       </c>
       <c r="C75">
-        <v>3.3469998836517334</v>
+        <v>11.572999954223633</v>
       </c>
       <c r="D75">
-        <v>11.572999954223633</v>
+        <v>18.931999206542969</v>
       </c>
       <c r="E75">
-        <v>18.931999206542969</v>
-      </c>
-      <c r="F75">
         <v>0.98799997568130493</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>75</v>
+        <v>3.5590000152587891</v>
       </c>
       <c r="B76">
-        <v>3.5590000152587891</v>
+        <v>3.5109999179840088</v>
       </c>
       <c r="C76">
-        <v>3.5109999179840088</v>
+        <v>9.6070003509521484</v>
       </c>
       <c r="D76">
-        <v>9.6070003509521484</v>
+        <v>18.149999618530273</v>
       </c>
       <c r="E76">
-        <v>18.149999618530273</v>
-      </c>
-      <c r="F76">
         <v>1.0099999904632568</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>76</v>
+        <v>3.6019999980926514</v>
       </c>
       <c r="B77">
-        <v>3.6019999980926514</v>
+        <v>3.2579998970031738</v>
       </c>
       <c r="C77">
-        <v>3.2579998970031738</v>
+        <v>8.8050003051757812</v>
       </c>
       <c r="D77">
-        <v>8.8050003051757812</v>
+        <v>17.819999694824219</v>
       </c>
       <c r="E77">
-        <v>17.819999694824219</v>
-      </c>
-      <c r="F77">
         <v>0.79500001668930054</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>77</v>
+        <v>3.7639999389648438</v>
       </c>
       <c r="B78">
-        <v>3.7639999389648438</v>
+        <v>3.5520000457763672</v>
       </c>
       <c r="C78">
-        <v>3.5520000457763672</v>
+        <v>11.479000091552734</v>
       </c>
       <c r="D78">
-        <v>11.479000091552734</v>
+        <v>18.915000915527344</v>
       </c>
       <c r="E78">
-        <v>18.915000915527344</v>
-      </c>
-      <c r="F78">
         <v>1.0390000343322754</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>78</v>
+        <v>3.6170001029968262</v>
       </c>
       <c r="B79">
-        <v>3.6170001029968262</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="C79">
-        <v>3.690000057220459</v>
+        <v>11.138999938964844</v>
       </c>
       <c r="D79">
-        <v>11.138999938964844</v>
+        <v>18.593999862670898</v>
       </c>
       <c r="E79">
-        <v>18.593999862670898</v>
-      </c>
-      <c r="F79">
         <v>1.0679999589920044</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>79</v>
+        <v>3.7200000286102295</v>
       </c>
       <c r="B80">
-        <v>3.7200000286102295</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="C80">
-        <v>3.690000057220459</v>
+        <v>13.579000473022461</v>
       </c>
       <c r="D80">
-        <v>13.579000473022461</v>
+        <v>19.097000122070312</v>
       </c>
       <c r="E80">
-        <v>19.097000122070312</v>
-      </c>
-      <c r="F80">
         <v>0.9100000262260437</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>80</v>
+        <v>3.8819999694824219</v>
       </c>
       <c r="B81">
-        <v>3.8819999694824219</v>
+        <v>3.5209999084472656</v>
       </c>
       <c r="C81">
-        <v>3.5209999084472656</v>
+        <v>8.7349996566772461</v>
       </c>
       <c r="D81">
-        <v>8.7349996566772461</v>
+        <v>18.02400016784668</v>
       </c>
       <c r="E81">
-        <v>18.02400016784668</v>
-      </c>
-      <c r="F81">
         <v>0.94300001859664917</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>81</v>
+        <v>3.7560000419616699</v>
       </c>
       <c r="B82">
-        <v>3.7560000419616699</v>
+        <v>3.4930000305175781</v>
       </c>
       <c r="C82">
-        <v>3.4930000305175781</v>
+        <v>13.895999908447266</v>
       </c>
       <c r="D82">
-        <v>13.895999908447266</v>
+        <v>19.25</v>
       </c>
       <c r="E82">
-        <v>19.25</v>
-      </c>
-      <c r="F82">
         <v>0.67599999904632568</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>82</v>
+        <v>4.1030001640319824</v>
       </c>
       <c r="B83">
-        <v>4.1030001640319824</v>
+        <v>3.1779999732971191</v>
       </c>
       <c r="C83">
-        <v>3.1779999732971191</v>
+        <v>7.1220002174377441</v>
       </c>
       <c r="D83">
-        <v>7.1220002174377441</v>
+        <v>16.750999450683594</v>
       </c>
       <c r="E83">
-        <v>16.750999450683594</v>
-      </c>
-      <c r="F83">
         <v>0.65700000524520874</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>83</v>
+        <v>3.6530001163482666</v>
       </c>
       <c r="B84">
-        <v>3.6530001163482666</v>
+        <v>3.4030001163482666</v>
       </c>
       <c r="C84">
-        <v>3.4030001163482666</v>
+        <v>12.796999931335449</v>
       </c>
       <c r="D84">
-        <v>12.796999931335449</v>
+        <v>18.783000946044922</v>
       </c>
       <c r="E84">
-        <v>18.783000946044922</v>
-      </c>
-      <c r="F84">
         <v>1.0720000267028809</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>84</v>
+        <v>3.5859999656677246</v>
       </c>
       <c r="B85">
-        <v>3.5859999656677246</v>
+        <v>3.5980000495910645</v>
       </c>
       <c r="C85">
-        <v>3.5980000495910645</v>
+        <v>10.508999824523926</v>
       </c>
       <c r="D85">
-        <v>10.508999824523926</v>
+        <v>17.33799934387207</v>
       </c>
       <c r="E85">
-        <v>17.33799934387207</v>
-      </c>
-      <c r="F85">
         <v>1.2130000591278076</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>85</v>
+        <v>3.7799999713897705</v>
       </c>
       <c r="B86">
-        <v>3.7799999713897705</v>
+        <v>3.8320000171661377</v>
       </c>
       <c r="C86">
-        <v>3.8320000171661377</v>
+        <v>11.921999931335449</v>
       </c>
       <c r="D86">
-        <v>11.921999931335449</v>
+        <v>18.690000534057617</v>
       </c>
       <c r="E86">
-        <v>18.690000534057617</v>
-      </c>
-      <c r="F86">
         <v>0.68500000238418579</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>86</v>
+        <v>3.7300000190734863</v>
       </c>
       <c r="B87">
-        <v>3.7300000190734863</v>
+        <v>3.75</v>
       </c>
       <c r="C87">
-        <v>3.75</v>
+        <v>11.800999641418457</v>
       </c>
       <c r="D87">
-        <v>11.800999641418457</v>
+        <v>18.851999282836914</v>
       </c>
       <c r="E87">
-        <v>18.851999282836914</v>
-      </c>
-      <c r="F87">
         <v>0.93199998140335083</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>87</v>
+        <v>3.8559999465942383</v>
       </c>
       <c r="B88">
-        <v>3.8559999465942383</v>
+        <v>3.4530000686645508</v>
       </c>
       <c r="C88">
-        <v>3.4530000686645508</v>
+        <v>9.4779996871948242</v>
       </c>
       <c r="D88">
-        <v>9.4779996871948242</v>
+        <v>18.427999496459961</v>
       </c>
       <c r="E88">
-        <v>18.427999496459961</v>
-      </c>
-      <c r="F88">
         <v>0.97299998998641968</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>88</v>
+        <v>3.5710000991821289</v>
       </c>
       <c r="B89">
-        <v>3.5710000991821289</v>
+        <v>3.7019999027252197</v>
       </c>
       <c r="C89">
-        <v>3.7019999027252197</v>
+        <v>12.953000068664551</v>
       </c>
       <c r="D89">
-        <v>12.953000068664551</v>
+        <v>18.527000427246094</v>
       </c>
       <c r="E89">
-        <v>18.527000427246094</v>
-      </c>
-      <c r="F89">
         <v>0.45800000429153442</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>89</v>
+        <v>3.4430000782012939</v>
       </c>
       <c r="B90">
-        <v>3.4430000782012939</v>
+        <v>3.7130000591278076</v>
       </c>
       <c r="C90">
-        <v>3.7130000591278076</v>
+        <v>10.671999931335449</v>
       </c>
       <c r="D90">
-        <v>10.671999931335449</v>
+        <v>18.46299934387207</v>
       </c>
       <c r="E90">
-        <v>18.46299934387207</v>
-      </c>
-      <c r="F90">
         <v>0.72200000286102295</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>90</v>
+        <v>4.3020000457763672</v>
       </c>
       <c r="B91">
-        <v>4.3020000457763672</v>
+        <v>3.1510000228881836</v>
       </c>
       <c r="C91">
-        <v>3.1510000228881836</v>
+        <v>6.2639999389648438</v>
       </c>
       <c r="D91">
-        <v>6.2639999389648438</v>
+        <v>16.989999771118164</v>
       </c>
       <c r="E91">
-        <v>16.989999771118164</v>
-      </c>
-      <c r="F91">
         <v>0.66299998760223389</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>91</v>
+        <v>3.5789999961853027</v>
       </c>
       <c r="B92">
-        <v>3.5789999961853027</v>
+        <v>3.4609999656677246</v>
       </c>
       <c r="C92">
-        <v>3.4609999656677246</v>
+        <v>10.295000076293945</v>
       </c>
       <c r="D92">
-        <v>10.295000076293945</v>
+        <v>17.073999404907227</v>
       </c>
       <c r="E92">
-        <v>17.073999404907227</v>
-      </c>
-      <c r="F92">
         <v>0.46799999475479126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>92</v>
+        <v>3.7769999504089355</v>
       </c>
       <c r="B93">
-        <v>3.7769999504089355</v>
+        <v>3.4019999504089355</v>
       </c>
       <c r="C93">
-        <v>3.4019999504089355</v>
+        <v>10.078000068664551</v>
       </c>
       <c r="D93">
-        <v>10.078000068664551</v>
+        <v>18.610000610351562</v>
       </c>
       <c r="E93">
-        <v>18.610000610351562</v>
-      </c>
-      <c r="F93">
         <v>1.0499999523162842</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>93</v>
+        <v>3.7320001125335693</v>
       </c>
       <c r="B94">
-        <v>3.7320001125335693</v>
+        <v>3.3469998836517334</v>
       </c>
       <c r="C94">
-        <v>3.3469998836517334</v>
+        <v>10.326000213623047</v>
       </c>
       <c r="D94">
-        <v>10.326000213623047</v>
+        <v>18.603000640869141</v>
       </c>
       <c r="E94">
-        <v>18.603000640869141</v>
-      </c>
-      <c r="F94">
         <v>0.80099999904632568</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>94</v>
+        <v>3.8640000820159912</v>
       </c>
       <c r="B95">
-        <v>3.8640000820159912</v>
+        <v>3.5439999103546143</v>
       </c>
       <c r="C95">
-        <v>3.5439999103546143</v>
+        <v>14.282999992370605</v>
       </c>
       <c r="D95">
-        <v>14.282999992370605</v>
+        <v>18.729000091552734</v>
       </c>
       <c r="E95">
-        <v>18.729000091552734</v>
-      </c>
-      <c r="F95">
         <v>0.92699998617172241</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>95</v>
+        <v>3.621999979019165</v>
       </c>
       <c r="B96">
-        <v>3.621999979019165</v>
+        <v>3.4639999866485596</v>
       </c>
       <c r="C96">
-        <v>3.4639999866485596</v>
+        <v>11.654999732971191</v>
       </c>
       <c r="D96">
-        <v>11.654999732971191</v>
+        <v>17.572999954223633</v>
       </c>
       <c r="E96">
-        <v>17.572999954223633</v>
-      </c>
-      <c r="F96">
         <v>0.98500001430511475</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>96</v>
+        <v>3.5360000133514404</v>
       </c>
       <c r="B97">
-        <v>3.5360000133514404</v>
+        <v>3.6180000305175781</v>
       </c>
       <c r="C97">
-        <v>3.6180000305175781</v>
+        <v>11.336000442504883</v>
       </c>
       <c r="D97">
-        <v>11.336000442504883</v>
+        <v>18.187999725341797</v>
       </c>
       <c r="E97">
-        <v>18.187999725341797</v>
-      </c>
-      <c r="F97">
         <v>0.93500000238418579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>97</v>
+        <v>3.4769999980926514</v>
       </c>
       <c r="B98">
-        <v>3.4769999980926514</v>
+        <v>3.5520000457763672</v>
       </c>
       <c r="C98">
-        <v>3.5520000457763672</v>
+        <v>12.039999961853027</v>
       </c>
       <c r="D98">
-        <v>12.039999961853027</v>
+        <v>18.686000823974609</v>
       </c>
       <c r="E98">
-        <v>18.686000823974609</v>
-      </c>
-      <c r="F98">
         <v>0.80099999904632568</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>98</v>
+        <v>4.0479998588562012</v>
       </c>
       <c r="B99">
-        <v>4.0479998588562012</v>
+        <v>3.1310000419616699</v>
       </c>
       <c r="C99">
-        <v>3.1310000419616699</v>
+        <v>9.5329999923706055</v>
       </c>
       <c r="D99">
-        <v>9.5329999923706055</v>
+        <v>17.849000930786133</v>
       </c>
       <c r="E99">
-        <v>17.849000930786133</v>
-      </c>
-      <c r="F99">
         <v>1.0379999876022339</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>99</v>
+        <v>3.8059999942779541</v>
       </c>
       <c r="B100">
-        <v>3.8059999942779541</v>
+        <v>3.2190001010894775</v>
       </c>
       <c r="C100">
-        <v>3.2190001010894775</v>
+        <v>9.0659999847412109</v>
       </c>
       <c r="D100">
-        <v>9.0659999847412109</v>
+        <v>17.216999053955078</v>
       </c>
       <c r="E100">
-        <v>17.216999053955078</v>
-      </c>
-      <c r="F100">
         <v>0.96399998664855957</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>100</v>
+        <v>3.4100000858306885</v>
       </c>
       <c r="B101">
-        <v>3.4100000858306885</v>
+        <v>3.6040000915527344</v>
       </c>
       <c r="C101">
-        <v>3.6040000915527344</v>
+        <v>12.651000022888184</v>
       </c>
       <c r="D101">
-        <v>12.651000022888184</v>
+        <v>18.052000045776367</v>
       </c>
       <c r="E101">
-        <v>18.052000045776367</v>
-      </c>
-      <c r="F101">
         <v>0.69700002670288086</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>101</v>
+        <v>3.6159999370574951</v>
       </c>
       <c r="B102">
-        <v>3.6159999370574951</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="C102">
-        <v>3.869999885559082</v>
+        <v>11.493000030517578</v>
       </c>
       <c r="D102">
-        <v>11.493000030517578</v>
+        <v>18.86400032043457</v>
       </c>
       <c r="E102">
-        <v>18.86400032043457</v>
-      </c>
-      <c r="F102">
         <v>0.67000001668930054</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>102</v>
+        <v>4.0079998970031738</v>
       </c>
       <c r="B103">
-        <v>4.0079998970031738</v>
+        <v>3.3919999599456787</v>
       </c>
       <c r="C103">
-        <v>3.3919999599456787</v>
+        <v>10.211000442504883</v>
       </c>
       <c r="D103">
-        <v>10.211000442504883</v>
+        <v>17.617000579833984</v>
       </c>
       <c r="E103">
-        <v>17.617000579833984</v>
-      </c>
-      <c r="F103">
         <v>0.68400001525878906</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>103</v>
+        <v>3.621999979019165</v>
       </c>
       <c r="B104">
-        <v>3.621999979019165</v>
+        <v>3.3989999294281006</v>
       </c>
       <c r="C104">
-        <v>3.3989999294281006</v>
+        <v>12.710000038146973</v>
       </c>
       <c r="D104">
-        <v>12.710000038146973</v>
+        <v>18.680000305175781</v>
       </c>
       <c r="E104">
-        <v>18.680000305175781</v>
-      </c>
-      <c r="F104">
         <v>0.85000002384185791</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>104</v>
+        <v>3.6840000152587891</v>
       </c>
       <c r="B105">
-        <v>3.6840000152587891</v>
+        <v>3.4630000591278076</v>
       </c>
       <c r="C105">
-        <v>3.4630000591278076</v>
+        <v>10.960000038146973</v>
       </c>
       <c r="D105">
-        <v>10.960000038146973</v>
+        <v>17.843000411987305</v>
       </c>
       <c r="E105">
-        <v>17.843000411987305</v>
-      </c>
-      <c r="F105">
         <v>0.90200001001358032</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>105</v>
+        <v>3.3320000171661377</v>
       </c>
       <c r="B106">
-        <v>3.3320000171661377</v>
+        <v>3.9360001087188721</v>
       </c>
       <c r="C106">
-        <v>3.9360001087188721</v>
+        <v>12.229999542236328</v>
       </c>
       <c r="D106">
-        <v>12.229999542236328</v>
+        <v>17.929000854492188</v>
       </c>
       <c r="E106">
-        <v>17.929000854492188</v>
-      </c>
-      <c r="F106">
         <v>1.1940000057220459</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>106</v>
+        <v>3.9000000953674316</v>
       </c>
       <c r="B107">
-        <v>3.9000000953674316</v>
+        <v>3.3139998912811279</v>
       </c>
       <c r="C107">
-        <v>3.3139998912811279</v>
+        <v>9.7919998168945312</v>
       </c>
       <c r="D107">
-        <v>9.7919998168945312</v>
+        <v>18.013999938964844</v>
       </c>
       <c r="E107">
-        <v>18.013999938964844</v>
-      </c>
-      <c r="F107">
         <v>0.78799998760223389</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>107</v>
+        <v>3.7750000953674316</v>
       </c>
       <c r="B108">
-        <v>3.7750000953674316</v>
+        <v>3.497999906539917</v>
       </c>
       <c r="C108">
-        <v>3.497999906539917</v>
+        <v>13.302000045776367</v>
       </c>
       <c r="D108">
-        <v>13.302000045776367</v>
+        <v>18.318000793457031</v>
       </c>
       <c r="E108">
-        <v>18.318000793457031</v>
-      </c>
-      <c r="F108">
         <v>0.66200000047683716</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>108</v>
+        <v>3.7709999084472656</v>
       </c>
       <c r="B109">
-        <v>3.7709999084472656</v>
+        <v>3.434999942779541</v>
       </c>
       <c r="C109">
-        <v>3.434999942779541</v>
+        <v>10.255000114440918</v>
       </c>
       <c r="D109">
-        <v>10.255000114440918</v>
+        <v>15.569000244140625</v>
       </c>
       <c r="E109">
-        <v>15.569000244140625</v>
-      </c>
-      <c r="F109">
         <v>0.74500000476837158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>109</v>
+        <v>3.9560000896453857</v>
       </c>
       <c r="B110">
-        <v>3.9560000896453857</v>
+        <v>3.312000036239624</v>
       </c>
       <c r="C110">
-        <v>3.312000036239624</v>
+        <v>8.6470003128051758</v>
       </c>
       <c r="D110">
-        <v>8.6470003128051758</v>
+        <v>17.228000640869141</v>
       </c>
       <c r="E110">
-        <v>17.228000640869141</v>
-      </c>
-      <c r="F110">
         <v>0.85699999332427979</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>110</v>
+        <v>3.8380000591278076</v>
       </c>
       <c r="B111">
-        <v>3.8380000591278076</v>
+        <v>3.5339999198913574</v>
       </c>
       <c r="C111">
-        <v>3.5339999198913574</v>
+        <v>9.2880001068115234</v>
       </c>
       <c r="D111">
-        <v>9.2880001068115234</v>
+        <v>17.840000152587891</v>
       </c>
       <c r="E111">
-        <v>17.840000152587891</v>
-      </c>
-      <c r="F111">
         <v>0.70800000429153442</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>111</v>
+        <v>4.004000186920166</v>
       </c>
       <c r="B112">
-        <v>4.004000186920166</v>
+        <v>3.6700000762939453</v>
       </c>
       <c r="C112">
-        <v>3.6700000762939453</v>
+        <v>9.7110004425048828</v>
       </c>
       <c r="D112">
-        <v>9.7110004425048828</v>
+        <v>16.965000152587891</v>
       </c>
       <c r="E112">
-        <v>16.965000152587891</v>
-      </c>
-      <c r="F112">
         <v>0.54500001668930054</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>112</v>
+        <v>3.8239998817443848</v>
       </c>
       <c r="B113">
-        <v>3.8239998817443848</v>
+        <v>3.3710000514984131</v>
       </c>
       <c r="C113">
-        <v>3.3710000514984131</v>
+        <v>8.4060001373291016</v>
       </c>
       <c r="D113">
-        <v>8.4060001373291016</v>
+        <v>16.670999526977539</v>
       </c>
       <c r="E113">
-        <v>16.670999526977539</v>
-      </c>
-      <c r="F113">
         <v>0.98100000619888306</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>113</v>
+        <v>3.7790000438690186</v>
       </c>
       <c r="B114">
-        <v>3.7790000438690186</v>
+        <v>3.2679998874664307</v>
       </c>
       <c r="C114">
-        <v>3.2679998874664307</v>
+        <v>11.866999626159668</v>
       </c>
       <c r="D114">
-        <v>11.866999626159668</v>
+        <v>18.336999893188477</v>
       </c>
       <c r="E114">
-        <v>18.336999893188477</v>
-      </c>
-      <c r="F114">
         <v>0.65299999713897705</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>114</v>
+        <v>3.4730000495910645</v>
       </c>
       <c r="B115">
-        <v>3.4730000495910645</v>
+        <v>3.6589999198913574</v>
       </c>
       <c r="C115">
-        <v>3.6589999198913574</v>
+        <v>11.576999664306641</v>
       </c>
       <c r="D115">
-        <v>11.576999664306641</v>
+        <v>17.138999938964844</v>
       </c>
       <c r="E115">
-        <v>17.138999938964844</v>
-      </c>
-      <c r="F115">
         <v>0.6809999942779541</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>115</v>
+        <v>3.7620000839233398</v>
       </c>
       <c r="B116">
-        <v>3.7620000839233398</v>
+        <v>3.4430000782012939</v>
       </c>
       <c r="C116">
-        <v>3.4430000782012939</v>
+        <v>6.2680001258850098</v>
       </c>
       <c r="D116">
-        <v>6.2680001258850098</v>
+        <v>16.048999786376953</v>
       </c>
       <c r="E116">
-        <v>16.048999786376953</v>
-      </c>
-      <c r="F116">
         <v>0.4050000011920929</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>116</v>
+        <v>3.5959999561309814</v>
       </c>
       <c r="B117">
-        <v>3.5959999561309814</v>
+        <v>3.380000114440918</v>
       </c>
       <c r="C117">
-        <v>3.380000114440918</v>
+        <v>11.434000015258789</v>
       </c>
       <c r="D117">
-        <v>11.434000015258789</v>
+        <v>18.60099983215332</v>
       </c>
       <c r="E117">
-        <v>18.60099983215332</v>
-      </c>
-      <c r="F117">
         <v>0.94300001859664917</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>117</v>
+        <v>3.372999906539917</v>
       </c>
       <c r="B118">
-        <v>3.372999906539917</v>
+        <v>3.6470000743865967</v>
       </c>
       <c r="C118">
-        <v>3.6470000743865967</v>
+        <v>11.196000099182129</v>
       </c>
       <c r="D118">
-        <v>11.196000099182129</v>
+        <v>15.699999809265137</v>
       </c>
       <c r="E118">
-        <v>15.699999809265137</v>
-      </c>
-      <c r="F118">
         <v>-0.30799999833106995</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>118</v>
+        <v>3.8570001125335693</v>
       </c>
       <c r="B119">
-        <v>3.8570001125335693</v>
+        <v>3.3880000114440918</v>
       </c>
       <c r="C119">
-        <v>3.3880000114440918</v>
+        <v>9.8549995422363281</v>
       </c>
       <c r="D119">
-        <v>9.8549995422363281</v>
+        <v>18.176000595092773</v>
       </c>
       <c r="E119">
-        <v>18.176000595092773</v>
-      </c>
-      <c r="F119">
         <v>0.54100000858306885</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>119</v>
+        <v>3.2650001049041748</v>
       </c>
       <c r="B120">
-        <v>3.2650001049041748</v>
+        <v>3.7119998931884766</v>
       </c>
       <c r="C120">
-        <v>3.7119998931884766</v>
+        <v>13.006999969482422</v>
       </c>
       <c r="D120">
-        <v>13.006999969482422</v>
+        <v>17.975000381469727</v>
       </c>
       <c r="E120">
-        <v>17.975000381469727</v>
-      </c>
-      <c r="F120">
         <v>0.94300001859664917</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>120</v>
+        <v>3.6819999217987061</v>
       </c>
       <c r="B121">
-        <v>3.6819999217987061</v>
+        <v>4.0910000801086426</v>
       </c>
       <c r="C121">
-        <v>4.0910000801086426</v>
+        <v>9.0369997024536133</v>
       </c>
       <c r="D121">
-        <v>9.0369997024536133</v>
+        <v>18.291999816894531</v>
       </c>
       <c r="E121">
-        <v>18.291999816894531</v>
-      </c>
-      <c r="F121">
         <v>1.0010000467300415</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>121</v>
+        <v>3.7739999294281006</v>
       </c>
       <c r="B122">
-        <v>3.7739999294281006</v>
+        <v>3.369999885559082</v>
       </c>
       <c r="C122">
-        <v>3.369999885559082</v>
+        <v>12.52299976348877</v>
       </c>
       <c r="D122">
-        <v>12.52299976348877</v>
+        <v>18.545000076293945</v>
       </c>
       <c r="E122">
-        <v>18.545000076293945</v>
-      </c>
-      <c r="F122">
         <v>0.61699998378753662</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>122</v>
+        <v>3.7009999752044678</v>
       </c>
       <c r="B123">
-        <v>3.7009999752044678</v>
+        <v>3.4159998893737793</v>
       </c>
       <c r="C123">
-        <v>3.4159998893737793</v>
+        <v>9.4460000991821289</v>
       </c>
       <c r="D123">
-        <v>9.4460000991821289</v>
+        <v>17.906999588012695</v>
       </c>
       <c r="E123">
-        <v>17.906999588012695</v>
-      </c>
-      <c r="F123">
         <v>0.90499997138977051</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>123</v>
+        <v>3.7400000095367432</v>
       </c>
       <c r="B124">
-        <v>3.7400000095367432</v>
+        <v>3.5880000591278076</v>
       </c>
       <c r="C124">
-        <v>3.5880000591278076</v>
+        <v>14.317999839782715</v>
       </c>
       <c r="D124">
-        <v>14.317999839782715</v>
+        <v>19.379999160766602</v>
       </c>
       <c r="E124">
-        <v>19.379999160766602</v>
-      </c>
-      <c r="F124">
         <v>0.97899997234344482</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>124</v>
+        <v>3.9279999732971191</v>
       </c>
       <c r="B125">
-        <v>3.9279999732971191</v>
+        <v>3.4449999332427979</v>
       </c>
       <c r="C125">
-        <v>3.4449999332427979</v>
+        <v>10.918999671936035</v>
       </c>
       <c r="D125">
-        <v>10.918999671936035</v>
+        <v>18.476999282836914</v>
       </c>
       <c r="E125">
-        <v>18.476999282836914</v>
-      </c>
-      <c r="F125">
         <v>0.89899998903274536</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>125</v>
+        <v>3.8940000534057617</v>
       </c>
       <c r="B126">
-        <v>3.8940000534057617</v>
+        <v>3.5079998970031738</v>
       </c>
       <c r="C126">
-        <v>3.5079998970031738</v>
+        <v>10.51099967956543</v>
       </c>
       <c r="D126">
-        <v>10.51099967956543</v>
+        <v>17.329999923706055</v>
       </c>
       <c r="E126">
-        <v>17.329999923706055</v>
-      </c>
-      <c r="F126">
         <v>0.92400002479553223</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>126</v>
+        <v>3.1540000438690186</v>
       </c>
       <c r="B127">
-        <v>3.1540000438690186</v>
+        <v>3.9709999561309814</v>
       </c>
       <c r="C127">
-        <v>3.9709999561309814</v>
+        <v>12.590999603271484</v>
       </c>
       <c r="D127">
-        <v>12.590999603271484</v>
+        <v>17.014999389648438</v>
       </c>
       <c r="E127">
-        <v>17.014999389648438</v>
-      </c>
-      <c r="F127">
         <v>0.20100000500679016</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>127</v>
+        <v>3.4900000095367432</v>
       </c>
       <c r="B128">
-        <v>3.4900000095367432</v>
+        <v>3.6389999389648438</v>
       </c>
       <c r="C128">
-        <v>3.6389999389648438</v>
+        <v>9.4650001525878906</v>
       </c>
       <c r="D128">
-        <v>9.4650001525878906</v>
+        <v>17.947000503540039</v>
       </c>
       <c r="E128">
-        <v>17.947000503540039</v>
-      </c>
-      <c r="F128">
         <v>0.89600002765655518</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>128</v>
+        <v>3.9219999313354492</v>
       </c>
       <c r="B129">
-        <v>3.9219999313354492</v>
+        <v>3.2790000438690186</v>
       </c>
       <c r="C129">
-        <v>3.2790000438690186</v>
+        <v>8.4289999008178711</v>
       </c>
       <c r="D129">
-        <v>8.4289999008178711</v>
+        <v>17.479000091552734</v>
       </c>
       <c r="E129">
-        <v>17.479000091552734</v>
-      </c>
-      <c r="F129">
         <v>0.79100000858306885</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>129</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="B130">
-        <v>3.940000057220459</v>
+        <v>3.6019999980926514</v>
       </c>
       <c r="C130">
-        <v>3.6019999980926514</v>
+        <v>7.5729999542236328</v>
       </c>
       <c r="D130">
-        <v>7.5729999542236328</v>
+        <v>17.98699951171875</v>
       </c>
       <c r="E130">
-        <v>17.98699951171875</v>
-      </c>
-      <c r="F130">
         <v>0.81000000238418579</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>130</v>
+        <v>3.7409999370574951</v>
       </c>
       <c r="B131">
-        <v>3.7409999370574951</v>
+        <v>3.6140000820159912</v>
       </c>
       <c r="C131">
-        <v>3.6140000820159912</v>
+        <v>10.796999931335449</v>
       </c>
       <c r="D131">
-        <v>10.796999931335449</v>
+        <v>18.238000869750977</v>
       </c>
       <c r="E131">
-        <v>18.238000869750977</v>
-      </c>
-      <c r="F131">
         <v>1.0410000085830688</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>131</v>
+        <v>3.6440000534057617</v>
       </c>
       <c r="B132">
-        <v>3.6440000534057617</v>
+        <v>3.4890000820159912</v>
       </c>
       <c r="C132">
-        <v>3.4890000820159912</v>
+        <v>12.142000198364258</v>
       </c>
       <c r="D132">
-        <v>12.142000198364258</v>
+        <v>19.274999618530273</v>
       </c>
       <c r="E132">
-        <v>19.274999618530273</v>
-      </c>
-      <c r="F132">
         <v>0.96700000762939453</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>132</v>
+        <v>3.7950000762939453</v>
       </c>
       <c r="B133">
-        <v>3.7950000762939453</v>
+        <v>3.5639998912811279</v>
       </c>
       <c r="C133">
-        <v>3.5639998912811279</v>
+        <v>10.211000442504883</v>
       </c>
       <c r="D133">
-        <v>10.211000442504883</v>
+        <v>17.648000717163086</v>
       </c>
       <c r="E133">
-        <v>17.648000717163086</v>
-      </c>
-      <c r="F133">
         <v>0.78200000524520874</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>133</v>
+        <v>3.7820000648498535</v>
       </c>
       <c r="B134">
-        <v>3.7820000648498535</v>
+        <v>3.5659999847412109</v>
       </c>
       <c r="C134">
-        <v>3.5659999847412109</v>
+        <v>11.08899974822998</v>
       </c>
       <c r="D134">
-        <v>11.08899974822998</v>
+        <v>17.87299919128418</v>
       </c>
       <c r="E134">
-        <v>17.87299919128418</v>
-      </c>
-      <c r="F134">
         <v>0.50700002908706665</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>134</v>
+        <v>3.9509999752044678</v>
       </c>
       <c r="B135">
-        <v>3.9509999752044678</v>
+        <v>3.3910000324249268</v>
       </c>
       <c r="C135">
-        <v>3.3910000324249268</v>
+        <v>12.626999855041504</v>
       </c>
       <c r="D135">
-        <v>12.626999855041504</v>
+        <v>19.48900032043457</v>
       </c>
       <c r="E135">
-        <v>19.48900032043457</v>
-      </c>
-      <c r="F135">
         <v>0.92599999904632568</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>135</v>
+        <v>3.750999927520752</v>
       </c>
       <c r="B136">
-        <v>3.750999927520752</v>
+        <v>3.6370000839233398</v>
       </c>
       <c r="C136">
-        <v>3.6370000839233398</v>
+        <v>8.3549995422363281</v>
       </c>
       <c r="D136">
-        <v>8.3549995422363281</v>
+        <v>17.888999938964844</v>
       </c>
       <c r="E136">
-        <v>17.888999938964844</v>
-      </c>
-      <c r="F136">
         <v>0.82200002670288086</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>136</v>
+        <v>3.8840000629425049</v>
       </c>
       <c r="B137">
-        <v>3.8840000629425049</v>
+        <v>3.4159998893737793</v>
       </c>
       <c r="C137">
-        <v>3.4159998893737793</v>
+        <v>8.6219997406005859</v>
       </c>
       <c r="D137">
-        <v>8.6219997406005859</v>
+        <v>17.447999954223633</v>
       </c>
       <c r="E137">
-        <v>17.447999954223633</v>
-      </c>
-      <c r="F137">
         <v>0.65799999237060547</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>137</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="B138">
-        <v>3.630000114440918</v>
+        <v>3.5510001182556152</v>
       </c>
       <c r="C138">
-        <v>3.5510001182556152</v>
+        <v>11.14799976348877</v>
       </c>
       <c r="D138">
-        <v>11.14799976348877</v>
+        <v>17.802999496459961</v>
       </c>
       <c r="E138">
-        <v>17.802999496459961</v>
-      </c>
-      <c r="F138">
         <v>0.82999998331069946</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>138</v>
+        <v>3.7929999828338623</v>
       </c>
       <c r="B139">
-        <v>3.7929999828338623</v>
+        <v>3.255000114440918</v>
       </c>
       <c r="C139">
-        <v>3.255000114440918</v>
+        <v>11.074999809265137</v>
       </c>
       <c r="D139">
-        <v>11.074999809265137</v>
+        <v>17.25</v>
       </c>
       <c r="E139">
-        <v>17.25</v>
-      </c>
-      <c r="F139">
         <v>0.60100001096725464</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>139</v>
+        <v>3.6589999198913574</v>
       </c>
       <c r="B140">
-        <v>3.6589999198913574</v>
+        <v>3.4849998950958252</v>
       </c>
       <c r="C140">
-        <v>3.4849998950958252</v>
+        <v>11.284999847412109</v>
       </c>
       <c r="D140">
-        <v>11.284999847412109</v>
+        <v>19.694999694824219</v>
       </c>
       <c r="E140">
-        <v>19.694999694824219</v>
-      </c>
-      <c r="F140">
         <v>0.93199998140335083</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>140</v>
+        <v>3.8069999217987061</v>
       </c>
       <c r="B141">
-        <v>3.8069999217987061</v>
+        <v>3.6579999923706055</v>
       </c>
       <c r="C141">
-        <v>3.6579999923706055</v>
+        <v>13.972000122070312</v>
       </c>
       <c r="D141">
-        <v>13.972000122070312</v>
+        <v>18.166999816894531</v>
       </c>
       <c r="E141">
-        <v>18.166999816894531</v>
-      </c>
-      <c r="F141">
         <v>0.5130000114440918</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>141</v>
+        <v>3.6989998817443848</v>
       </c>
       <c r="B142">
-        <v>3.6989998817443848</v>
+        <v>3.4960000514984131</v>
       </c>
       <c r="C142">
-        <v>3.4960000514984131</v>
+        <v>10.621000289916992</v>
       </c>
       <c r="D142">
-        <v>10.621000289916992</v>
+        <v>16.445999145507812</v>
       </c>
       <c r="E142">
-        <v>16.445999145507812</v>
-      </c>
-      <c r="F142">
         <v>0.59899997711181641</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>142</v>
+        <v>3.7790000438690186</v>
       </c>
       <c r="B143">
-        <v>3.7790000438690186</v>
+        <v>3.4639999866485596</v>
       </c>
       <c r="C143">
-        <v>3.4639999866485596</v>
+        <v>12.461999893188477</v>
       </c>
       <c r="D143">
-        <v>12.461999893188477</v>
+        <v>18.187999725341797</v>
       </c>
       <c r="E143">
-        <v>18.187999725341797</v>
-      </c>
-      <c r="F143">
         <v>0.90200001001358032</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>143</v>
+        <v>3.687999963760376</v>
       </c>
       <c r="B144">
-        <v>3.687999963760376</v>
+        <v>3.4639999866485596</v>
       </c>
       <c r="C144">
-        <v>3.4639999866485596</v>
+        <v>9.8079996109008789</v>
       </c>
       <c r="D144">
-        <v>9.8079996109008789</v>
+        <v>15.98799991607666</v>
       </c>
       <c r="E144">
-        <v>15.98799991607666</v>
-      </c>
-      <c r="F144">
         <v>0.77399998903274536</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>144</v>
+        <v>3.6970000267028809</v>
       </c>
       <c r="B145">
-        <v>3.6970000267028809</v>
+        <v>3.3689999580383301</v>
       </c>
       <c r="C145">
-        <v>3.3689999580383301</v>
+        <v>9.425999641418457</v>
       </c>
       <c r="D145">
-        <v>9.425999641418457</v>
+        <v>17.568000793457031</v>
       </c>
       <c r="E145">
-        <v>17.568000793457031</v>
-      </c>
-      <c r="F145">
         <v>0.69499999284744263</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>145</v>
+        <v>3.746999979019165</v>
       </c>
       <c r="B146">
-        <v>3.746999979019165</v>
+        <v>3.5490000247955322</v>
       </c>
       <c r="C146">
-        <v>3.5490000247955322</v>
+        <v>9.1850004196166992</v>
       </c>
       <c r="D146">
-        <v>9.1850004196166992</v>
+        <v>18.455999374389648</v>
       </c>
       <c r="E146">
-        <v>18.455999374389648</v>
-      </c>
-      <c r="F146">
         <v>0.86000001430511475</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>146</v>
+        <v>3.5899999141693115</v>
       </c>
       <c r="B147">
-        <v>3.5899999141693115</v>
+        <v>3.9140000343322754</v>
       </c>
       <c r="C147">
-        <v>3.9140000343322754</v>
+        <v>9.4069995880126953</v>
       </c>
       <c r="D147">
-        <v>9.4069995880126953</v>
+        <v>17.757999420166016</v>
       </c>
       <c r="E147">
-        <v>17.757999420166016</v>
-      </c>
-      <c r="F147">
         <v>1.1950000524520874</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>147</v>
+        <v>3.4389998912811279</v>
       </c>
       <c r="B148">
-        <v>3.4389998912811279</v>
+        <v>3.6989998817443848</v>
       </c>
       <c r="C148">
-        <v>3.6989998817443848</v>
+        <v>11.50100040435791</v>
       </c>
       <c r="D148">
-        <v>11.50100040435791</v>
+        <v>18.082000732421875</v>
       </c>
       <c r="E148">
-        <v>18.082000732421875</v>
-      </c>
-      <c r="F148">
         <v>0.30399999022483826</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>148</v>
+        <v>4.0619997978210449</v>
       </c>
       <c r="B149">
-        <v>4.0619997978210449</v>
+        <v>3.1700000762939453</v>
       </c>
       <c r="C149">
-        <v>3.1700000762939453</v>
+        <v>8.1669998168945312</v>
       </c>
       <c r="D149">
-        <v>8.1669998168945312</v>
+        <v>17.516000747680664</v>
       </c>
       <c r="E149">
-        <v>17.516000747680664</v>
-      </c>
-      <c r="F149">
         <v>0.9309999942779541</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>149</v>
+        <v>3.8580000400543213</v>
       </c>
       <c r="B150">
-        <v>3.8580000400543213</v>
+        <v>3.3199999332427979</v>
       </c>
       <c r="C150">
-        <v>3.3199999332427979</v>
+        <v>8.3940000534057617</v>
       </c>
       <c r="D150">
-        <v>8.3940000534057617</v>
+        <v>15.864999771118164</v>
       </c>
       <c r="E150">
-        <v>15.864999771118164</v>
-      </c>
-      <c r="F150">
         <v>0.83399999141693115</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>150</v>
+        <v>3.872999906539917</v>
       </c>
       <c r="B151">
-        <v>3.872999906539917</v>
+        <v>3.2149999141693115</v>
       </c>
       <c r="C151">
-        <v>3.2149999141693115</v>
+        <v>6.2519998550415039</v>
       </c>
       <c r="D151">
-        <v>6.2519998550415039</v>
+        <v>16.979000091552734</v>
       </c>
       <c r="E151">
-        <v>16.979000091552734</v>
-      </c>
-      <c r="F151">
         <v>0.87300002574920654</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>151</v>
+        <v>3.7869999408721924</v>
       </c>
       <c r="B152">
-        <v>3.7869999408721924</v>
+        <v>3.4040000438690186</v>
       </c>
       <c r="C152">
-        <v>3.4040000438690186</v>
+        <v>10.574999809265137</v>
       </c>
       <c r="D152">
-        <v>10.574999809265137</v>
+        <v>18.041999816894531</v>
       </c>
       <c r="E152">
-        <v>18.041999816894531</v>
-      </c>
-      <c r="F152">
         <v>0.75</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>152</v>
+        <v>3.7839999198913574</v>
       </c>
       <c r="B153">
-        <v>3.7839999198913574</v>
+        <v>3.3519999980926514</v>
       </c>
       <c r="C153">
-        <v>3.3519999980926514</v>
+        <v>10.395000457763672</v>
       </c>
       <c r="D153">
-        <v>10.395000457763672</v>
+        <v>17.951999664306641</v>
       </c>
       <c r="E153">
-        <v>17.951999664306641</v>
-      </c>
-      <c r="F153">
         <v>0.95300000905990601</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>153</v>
+        <v>4.0100002288818359</v>
       </c>
       <c r="B154">
-        <v>4.0100002288818359</v>
+        <v>3.3269999027252197</v>
       </c>
       <c r="C154">
-        <v>3.3269999027252197</v>
+        <v>8.310999870300293</v>
       </c>
       <c r="D154">
-        <v>8.310999870300293</v>
+        <v>17.499000549316406</v>
       </c>
       <c r="E154">
-        <v>17.499000549316406</v>
-      </c>
-      <c r="F154">
         <v>0.67199999094009399</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>154</v>
+        <v>3.687000036239624</v>
       </c>
       <c r="B155">
-        <v>3.687000036239624</v>
+        <v>3.5680000782012939</v>
       </c>
       <c r="C155">
-        <v>3.5680000782012939</v>
+        <v>8.1899995803833008</v>
       </c>
       <c r="D155">
-        <v>8.1899995803833008</v>
+        <v>16.632999420166016</v>
       </c>
       <c r="E155">
-        <v>16.632999420166016</v>
-      </c>
-      <c r="F155">
         <v>0.62599998712539673</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>155</v>
+        <v>3.8870000839233398</v>
       </c>
       <c r="B156">
-        <v>3.8870000839233398</v>
+        <v>3.4939999580383301</v>
       </c>
       <c r="C156">
-        <v>3.4939999580383301</v>
+        <v>10.590000152587891</v>
       </c>
       <c r="D156">
-        <v>10.590000152587891</v>
+        <v>18.004999160766602</v>
       </c>
       <c r="E156">
-        <v>18.004999160766602</v>
-      </c>
-      <c r="F156">
         <v>0.67799997329711914</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>156</v>
+        <v>3.6150000095367432</v>
       </c>
       <c r="B157">
-        <v>3.6150000095367432</v>
+        <v>3.5529999732971191</v>
       </c>
       <c r="C157">
-        <v>3.5529999732971191</v>
+        <v>12.296999931335449</v>
       </c>
       <c r="D157">
-        <v>12.296999931335449</v>
+        <v>17.680000305175781</v>
       </c>
       <c r="E157">
-        <v>17.680000305175781</v>
-      </c>
-      <c r="F157">
         <v>1.0700000524520874</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>157</v>
+        <v>3.5130000114440918</v>
       </c>
       <c r="B158">
-        <v>3.5130000114440918</v>
+        <v>3.5150001049041748</v>
       </c>
       <c r="C158">
-        <v>3.5150001049041748</v>
+        <v>10.73900032043457</v>
       </c>
       <c r="D158">
-        <v>10.73900032043457</v>
+        <v>18.476999282836914</v>
       </c>
       <c r="E158">
-        <v>18.476999282836914</v>
-      </c>
-      <c r="F158">
         <v>1.2150000333786011</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>158</v>
+        <v>3.7990000247955322</v>
       </c>
       <c r="B159">
-        <v>3.7990000247955322</v>
+        <v>3.3610000610351562</v>
       </c>
       <c r="C159">
-        <v>3.3610000610351562</v>
+        <v>12.482000350952148</v>
       </c>
       <c r="D159">
-        <v>12.482000350952148</v>
+        <v>18.306999206542969</v>
       </c>
       <c r="E159">
-        <v>18.306999206542969</v>
-      </c>
-      <c r="F159">
         <v>0.66200000047683716</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>159</v>
+        <v>4.3420000076293945</v>
       </c>
       <c r="B160">
-        <v>4.3420000076293945</v>
+        <v>3.0199999809265137</v>
       </c>
       <c r="C160">
-        <v>3.0199999809265137</v>
+        <v>6.6510000228881836</v>
       </c>
       <c r="D160">
-        <v>6.6510000228881836</v>
+        <v>14.16100025177002</v>
       </c>
       <c r="E160">
-        <v>14.16100025177002</v>
-      </c>
-      <c r="F160">
         <v>0.86799997091293335</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>160</v>
+        <v>3.6440000534057617</v>
       </c>
       <c r="B161">
-        <v>3.6440000534057617</v>
+        <v>3.5659999847412109</v>
       </c>
       <c r="C161">
-        <v>3.5659999847412109</v>
+        <v>13.097999572753906</v>
       </c>
       <c r="D161">
-        <v>13.097999572753906</v>
+        <v>17.937999725341797</v>
       </c>
       <c r="E161">
-        <v>17.937999725341797</v>
-      </c>
-      <c r="F161">
         <v>0.42100000381469727</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>161</v>
+        <v>3.7260000705718994</v>
       </c>
       <c r="B162">
-        <v>3.7260000705718994</v>
+        <v>3.7019999027252197</v>
       </c>
       <c r="C162">
-        <v>3.7019999027252197</v>
+        <v>13.538999557495117</v>
       </c>
       <c r="D162">
-        <v>13.538999557495117</v>
+        <v>18.159000396728516</v>
       </c>
       <c r="E162">
-        <v>18.159000396728516</v>
-      </c>
-      <c r="F162">
         <v>1.1050000190734863</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>162</v>
+        <v>3.6719999313354492</v>
       </c>
       <c r="B163">
-        <v>3.6719999313354492</v>
+        <v>3.6170001029968262</v>
       </c>
       <c r="C163">
-        <v>3.6170001029968262</v>
+        <v>9.5360002517700195</v>
       </c>
       <c r="D163">
-        <v>9.5360002517700195</v>
+        <v>18.693000793457031</v>
       </c>
       <c r="E163">
-        <v>18.693000793457031</v>
-      </c>
-      <c r="F163">
         <v>0.87099999189376831</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>163</v>
+        <v>3.4609999656677246</v>
       </c>
       <c r="B164">
-        <v>3.4609999656677246</v>
+        <v>3.7360000610351562</v>
       </c>
       <c r="C164">
-        <v>3.7360000610351562</v>
+        <v>12.722000122070312</v>
       </c>
       <c r="D164">
-        <v>12.722000122070312</v>
+        <v>17.770000457763672</v>
       </c>
       <c r="E164">
-        <v>17.770000457763672</v>
-      </c>
-      <c r="F164">
         <v>1.0149999856948853</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>164</v>
+        <v>3.6909999847412109</v>
       </c>
       <c r="B165">
-        <v>3.6909999847412109</v>
+        <v>3.8090000152587891</v>
       </c>
       <c r="C165">
-        <v>3.8090000152587891</v>
+        <v>10.074000358581543</v>
       </c>
       <c r="D165">
-        <v>10.074000358581543</v>
+        <v>18.681999206542969</v>
       </c>
       <c r="E165">
-        <v>18.681999206542969</v>
-      </c>
-      <c r="F165">
         <v>0.90499997138977051</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>165</v>
+        <v>3.6740000247955322</v>
       </c>
       <c r="B166">
-        <v>3.6740000247955322</v>
+        <v>3.4539999961853027</v>
       </c>
       <c r="C166">
-        <v>3.4539999961853027</v>
+        <v>12.22700023651123</v>
       </c>
       <c r="D166">
-        <v>12.22700023651123</v>
+        <v>19.711999893188477</v>
       </c>
       <c r="E166">
-        <v>19.711999893188477</v>
-      </c>
-      <c r="F166">
         <v>0.46000000834465027</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>166</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="B167">
-        <v>3.7999999523162842</v>
+        <v>3.4869999885559082</v>
       </c>
       <c r="C167">
-        <v>3.4869999885559082</v>
+        <v>13.208999633789062</v>
       </c>
       <c r="D167">
-        <v>13.208999633789062</v>
+        <v>17.938999176025391</v>
       </c>
       <c r="E167">
-        <v>17.938999176025391</v>
-      </c>
-      <c r="F167">
         <v>1.25</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>167</v>
+        <v>3.8840000629425049</v>
       </c>
       <c r="B168">
-        <v>3.8840000629425049</v>
+        <v>3.6809999942779541</v>
       </c>
       <c r="C168">
-        <v>3.6809999942779541</v>
+        <v>10.003000259399414</v>
       </c>
       <c r="D168">
-        <v>10.003000259399414</v>
+        <v>18.61199951171875</v>
       </c>
       <c r="E168">
-        <v>18.61199951171875</v>
-      </c>
-      <c r="F168">
         <v>1.1210000514984131</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>168</v>
+        <v>3.6180000305175781</v>
       </c>
       <c r="B169">
-        <v>3.6180000305175781</v>
+        <v>3.7009999752044678</v>
       </c>
       <c r="C169">
-        <v>3.7009999752044678</v>
+        <v>12.25100040435791</v>
       </c>
       <c r="D169">
-        <v>12.25100040435791</v>
+        <v>18.538000106811523</v>
       </c>
       <c r="E169">
-        <v>18.538000106811523</v>
-      </c>
-      <c r="F169">
         <v>0.67599999904632568</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>169</v>
+        <v>3.7249999046325684</v>
       </c>
       <c r="B170">
-        <v>3.7249999046325684</v>
+        <v>3.6310000419616699</v>
       </c>
       <c r="C170">
-        <v>3.6310000419616699</v>
+        <v>11.439000129699707</v>
       </c>
       <c r="D170">
-        <v>11.439000129699707</v>
+        <v>18.673000335693359</v>
       </c>
       <c r="E170">
-        <v>18.673000335693359</v>
-      </c>
-      <c r="F170">
         <v>1.0549999475479126</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>170</v>
+        <v>3.2430000305175781</v>
       </c>
       <c r="B171">
-        <v>3.2430000305175781</v>
+        <v>3.7950000762939453</v>
       </c>
       <c r="C171">
-        <v>3.7950000762939453</v>
+        <v>14.984999656677246</v>
       </c>
       <c r="D171">
-        <v>14.984999656677246</v>
+        <v>17.01300048828125</v>
       </c>
       <c r="E171">
-        <v>17.01300048828125</v>
-      </c>
-      <c r="F171">
         <v>1.1920000314712524</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>171</v>
+        <v>3.7690000534057617</v>
       </c>
       <c r="B172">
-        <v>3.7690000534057617</v>
+        <v>3.3239998817443848</v>
       </c>
       <c r="C172">
-        <v>3.3239998817443848</v>
+        <v>9.9029998779296875</v>
       </c>
       <c r="D172">
-        <v>9.9029998779296875</v>
+        <v>17.645999908447266</v>
       </c>
       <c r="E172">
-        <v>17.645999908447266</v>
-      </c>
-      <c r="F172">
         <v>0.85100001096725464</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>172</v>
+        <v>3.7100000381469727</v>
       </c>
       <c r="B173">
-        <v>3.7100000381469727</v>
+        <v>3.5750000476837158</v>
       </c>
       <c r="C173">
-        <v>3.5750000476837158</v>
+        <v>8.7040004730224609</v>
       </c>
       <c r="D173">
-        <v>8.7040004730224609</v>
+        <v>19.156000137329102</v>
       </c>
       <c r="E173">
-        <v>19.156000137329102</v>
-      </c>
-      <c r="F173">
         <v>0.85799998044967651</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>173</v>
+        <v>3.7060000896453857</v>
       </c>
       <c r="B174">
-        <v>3.7060000896453857</v>
+        <v>3.7409999370574951</v>
       </c>
       <c r="C174">
-        <v>3.7409999370574951</v>
+        <v>10.625</v>
       </c>
       <c r="D174">
-        <v>10.625</v>
+        <v>17.96299934387207</v>
       </c>
       <c r="E174">
-        <v>17.96299934387207</v>
-      </c>
-      <c r="F174">
         <v>1.0039999485015869</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>174</v>
+        <v>3.5469999313354492</v>
       </c>
       <c r="B175">
-        <v>3.5469999313354492</v>
+        <v>3.7669999599456787</v>
       </c>
       <c r="C175">
-        <v>3.7669999599456787</v>
+        <v>11.468000411987305</v>
       </c>
       <c r="D175">
-        <v>11.468000411987305</v>
+        <v>16.558000564575195</v>
       </c>
       <c r="E175">
-        <v>16.558000564575195</v>
-      </c>
-      <c r="F175">
         <v>1.2699999809265137</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>175</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="B176">
-        <v>3.7999999523162842</v>
+        <v>3.8410000801086426</v>
       </c>
       <c r="C176">
-        <v>3.8410000801086426</v>
+        <v>12.359999656677246</v>
       </c>
       <c r="D176">
-        <v>12.359999656677246</v>
+        <v>18.999000549316406</v>
       </c>
       <c r="E176">
-        <v>18.999000549316406</v>
-      </c>
-      <c r="F176">
         <v>0.84500002861022949</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>176</v>
+        <v>3.4389998912811279</v>
       </c>
       <c r="B177">
-        <v>3.4389998912811279</v>
+        <v>3.8259999752044678</v>
       </c>
       <c r="C177">
-        <v>3.8259999752044678</v>
+        <v>12.083000183105469</v>
       </c>
       <c r="D177">
-        <v>12.083000183105469</v>
+        <v>16.179000854492188</v>
       </c>
       <c r="E177">
-        <v>16.179000854492188</v>
-      </c>
-      <c r="F177">
         <v>1.0260000228881836</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>177</v>
+        <v>3.6979999542236328</v>
       </c>
       <c r="B178">
-        <v>3.6979999542236328</v>
+        <v>3.6610000133514404</v>
       </c>
       <c r="C178">
-        <v>3.6610000133514404</v>
+        <v>12.51200008392334</v>
       </c>
       <c r="D178">
-        <v>12.51200008392334</v>
+        <v>18.167999267578125</v>
       </c>
       <c r="E178">
-        <v>18.167999267578125</v>
-      </c>
-      <c r="F178">
         <v>0.82599997520446777</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>178</v>
+        <v>3.4760000705718994</v>
       </c>
       <c r="B179">
-        <v>3.4760000705718994</v>
+        <v>3.6110000610351562</v>
       </c>
       <c r="C179">
-        <v>3.6110000610351562</v>
+        <v>10.668000221252441</v>
       </c>
       <c r="D179">
-        <v>10.668000221252441</v>
+        <v>15.348999977111816</v>
       </c>
       <c r="E179">
-        <v>15.348999977111816</v>
-      </c>
-      <c r="F179">
         <v>0.6589999794960022</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>179</v>
+        <v>3.3519999980926514</v>
       </c>
       <c r="B180">
-        <v>3.3519999980926514</v>
+        <v>3.7439999580383301</v>
       </c>
       <c r="C180">
-        <v>3.7439999580383301</v>
+        <v>14.00100040435791</v>
       </c>
       <c r="D180">
-        <v>14.00100040435791</v>
+        <v>17.760000228881836</v>
       </c>
       <c r="E180">
-        <v>17.760000228881836</v>
-      </c>
-      <c r="F180">
         <v>0.70800000429153442</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>180</v>
+        <v>3.4539999961853027</v>
       </c>
       <c r="B181">
-        <v>3.4539999961853027</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="C181">
-        <v>3.6400001049041748</v>
+        <v>14.569000244140625</v>
       </c>
       <c r="D181">
-        <v>14.569000244140625</v>
+        <v>17.570999145507812</v>
       </c>
       <c r="E181">
-        <v>17.570999145507812</v>
-      </c>
-      <c r="F181">
         <v>0.72200000286102295</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>181</v>
+        <v>3.6710000038146973</v>
       </c>
       <c r="B182">
-        <v>3.6710000038146973</v>
+        <v>3.5260000228881836</v>
       </c>
       <c r="C182">
-        <v>3.5260000228881836</v>
+        <v>13.921999931335449</v>
       </c>
       <c r="D182">
-        <v>13.921999931335449</v>
+        <v>17.190999984741211</v>
       </c>
       <c r="E182">
-        <v>17.190999984741211</v>
-      </c>
-      <c r="F182">
         <v>0.61699998378753662</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>182</v>
+        <v>3.6530001163482666</v>
       </c>
       <c r="B183">
-        <v>3.6530001163482666</v>
+        <v>3.2679998874664307</v>
       </c>
       <c r="C183">
-        <v>3.2679998874664307</v>
+        <v>9.3400001525878906</v>
       </c>
       <c r="D183">
-        <v>9.3400001525878906</v>
+        <v>16.618000030517578</v>
       </c>
       <c r="E183">
-        <v>16.618000030517578</v>
-      </c>
-      <c r="F183">
         <v>0.78799998760223389</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>183</v>
+        <v>3.5950000286102295</v>
       </c>
       <c r="B184">
-        <v>3.5950000286102295</v>
+        <v>3.4019999504089355</v>
       </c>
       <c r="C184">
-        <v>3.4019999504089355</v>
+        <v>12.348999977111816</v>
       </c>
       <c r="D184">
-        <v>12.348999977111816</v>
+        <v>18.374000549316406</v>
       </c>
       <c r="E184">
-        <v>18.374000549316406</v>
-      </c>
-      <c r="F184">
         <v>0.85699999332427979</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>184</v>
+        <v>3.8320000171661377</v>
       </c>
       <c r="B185">
-        <v>3.8320000171661377</v>
+        <v>3.8959999084472656</v>
       </c>
       <c r="C185">
-        <v>3.8959999084472656</v>
+        <v>11.984999656677246</v>
       </c>
       <c r="D185">
-        <v>11.984999656677246</v>
+        <v>18.667999267578125</v>
       </c>
       <c r="E185">
-        <v>18.667999267578125</v>
-      </c>
-      <c r="F185">
         <v>0.98799997568130493</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>185</v>
+        <v>3.6029999256134033</v>
       </c>
       <c r="B186">
-        <v>3.6029999256134033</v>
+        <v>3.625999927520752</v>
       </c>
       <c r="C186">
-        <v>3.625999927520752</v>
+        <v>11.14799976348877</v>
       </c>
       <c r="D186">
-        <v>11.14799976348877</v>
+        <v>18.398000717163086</v>
       </c>
       <c r="E186">
-        <v>18.398000717163086</v>
-      </c>
-      <c r="F186">
         <v>0.7929999828338623</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>186</v>
+        <v>3.7179999351501465</v>
       </c>
       <c r="B187">
-        <v>3.7179999351501465</v>
+        <v>3.6809999942779541</v>
       </c>
       <c r="C187">
-        <v>3.6809999942779541</v>
+        <v>12.800000190734863</v>
       </c>
       <c r="D187">
-        <v>12.800000190734863</v>
+        <v>17.968000411987305</v>
       </c>
       <c r="E187">
-        <v>17.968000411987305</v>
-      </c>
-      <c r="F187">
         <v>0.56999999284744263</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>187</v>
+        <v>3.6749999523162842</v>
       </c>
       <c r="B188">
-        <v>3.6749999523162842</v>
+        <v>3.7709999084472656</v>
       </c>
       <c r="C188">
-        <v>3.7709999084472656</v>
+        <v>12.119999885559082</v>
       </c>
       <c r="D188">
-        <v>12.119999885559082</v>
+        <v>19.295999526977539</v>
       </c>
       <c r="E188">
-        <v>19.295999526977539</v>
-      </c>
-      <c r="F188">
         <v>1.0119999647140503</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>188</v>
+        <v>3.2409999370574951</v>
       </c>
       <c r="B189">
-        <v>3.2409999370574951</v>
+        <v>4.1170001029968262</v>
       </c>
       <c r="C189">
-        <v>4.1170001029968262</v>
+        <v>12.845999717712402</v>
       </c>
       <c r="D189">
-        <v>12.845999717712402</v>
+        <v>17.64900016784668</v>
       </c>
       <c r="E189">
-        <v>17.64900016784668</v>
-      </c>
-      <c r="F189">
         <v>0.20999999344348907</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>189</v>
+        <v>3.4030001163482666</v>
       </c>
       <c r="B190">
-        <v>3.4030001163482666</v>
+        <v>3.997999906539917</v>
       </c>
       <c r="C190">
-        <v>3.997999906539917</v>
+        <v>11.413999557495117</v>
       </c>
       <c r="D190">
-        <v>11.413999557495117</v>
+        <v>18.253999710083008</v>
       </c>
       <c r="E190">
-        <v>18.253999710083008</v>
-      </c>
-      <c r="F190">
         <v>0.36599999666213989</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>190</v>
+        <v>3.752000093460083</v>
       </c>
       <c r="B191">
-        <v>3.752000093460083</v>
+        <v>3.5820000171661377</v>
       </c>
       <c r="C191">
-        <v>3.5820000171661377</v>
+        <v>9.1490001678466797</v>
       </c>
       <c r="D191">
-        <v>9.1490001678466797</v>
+        <v>16.041000366210938</v>
       </c>
       <c r="E191">
-        <v>16.041000366210938</v>
-      </c>
-      <c r="F191">
         <v>0.72100001573562622</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>191</v>
+        <v>3.9709999561309814</v>
       </c>
       <c r="B192">
-        <v>3.9709999561309814</v>
+        <v>3.4530000686645508</v>
       </c>
       <c r="C192">
-        <v>3.4530000686645508</v>
+        <v>11.453000068664551</v>
       </c>
       <c r="D192">
-        <v>11.453000068664551</v>
+        <v>16.190999984741211</v>
       </c>
       <c r="E192">
-        <v>16.190999984741211</v>
-      </c>
-      <c r="F192">
         <v>1.0099999904632568</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>192</v>
+        <v>3.4920001029968262</v>
       </c>
       <c r="B193">
-        <v>3.4920001029968262</v>
+        <v>3.5639998912811279</v>
       </c>
       <c r="C193">
-        <v>3.5639998912811279</v>
+        <v>11.637999534606934</v>
       </c>
       <c r="D193">
-        <v>11.637999534606934</v>
+        <v>17.542999267578125</v>
       </c>
       <c r="E193">
-        <v>17.542999267578125</v>
-      </c>
-      <c r="F193">
         <v>0.59700000286102295</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>193</v>
+        <v>3.7709999084472656</v>
       </c>
       <c r="B194">
-        <v>3.7709999084472656</v>
+        <v>3.6189999580383301</v>
       </c>
       <c r="C194">
-        <v>3.6189999580383301</v>
+        <v>11.043000221252441</v>
       </c>
       <c r="D194">
-        <v>11.043000221252441</v>
+        <v>18.291999816894531</v>
       </c>
       <c r="E194">
-        <v>18.291999816894531</v>
-      </c>
-      <c r="F194">
         <v>0.83700001239776611</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>194</v>
+        <v>3.4470000267028809</v>
       </c>
       <c r="B195">
-        <v>3.4470000267028809</v>
+        <v>3.628000020980835</v>
       </c>
       <c r="C195">
-        <v>3.628000020980835</v>
+        <v>9.7569999694824219</v>
       </c>
       <c r="D195">
-        <v>9.7569999694824219</v>
+        <v>15.010000228881836</v>
       </c>
       <c r="E195">
-        <v>15.010000228881836</v>
-      </c>
-      <c r="F195">
         <v>0.2669999897480011</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>195</v>
+        <v>3.8220000267028809</v>
       </c>
       <c r="B196">
-        <v>3.8220000267028809</v>
+        <v>3.8229999542236328</v>
       </c>
       <c r="C196">
-        <v>3.8229999542236328</v>
+        <v>9.9580001831054688</v>
       </c>
       <c r="D196">
-        <v>9.9580001831054688</v>
+        <v>17.683000564575195</v>
       </c>
       <c r="E196">
-        <v>17.683000564575195</v>
-      </c>
-      <c r="F196">
         <v>0.95099997520446777</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>196</v>
+        <v>3.8640000820159912</v>
       </c>
       <c r="B197">
-        <v>3.8640000820159912</v>
+        <v>3.5469999313354492</v>
       </c>
       <c r="C197">
-        <v>3.5469999313354492</v>
+        <v>11.206000328063965</v>
       </c>
       <c r="D197">
-        <v>11.206000328063965</v>
+        <v>18.173000335693359</v>
       </c>
       <c r="E197">
-        <v>18.173000335693359</v>
-      </c>
-      <c r="F197">
         <v>0.76200002431869507</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>197</v>
+        <v>3.5220000743865967</v>
       </c>
       <c r="B198">
-        <v>3.5220000743865967</v>
+        <v>3.622999906539917</v>
       </c>
       <c r="C198">
+        <v>11.368000030517578</v>
+      </c>
+      <c r="D198">
+        <v>17.072999954223633</v>
+      </c>
+      <c r="E198">
+        <v>0.81699997186660767</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>3.5850000381469727</v>
+      </c>
+      <c r="B199">
+        <v>3.9700000286102295</v>
+      </c>
+      <c r="C199">
+        <v>11.123000144958496</v>
+      </c>
+      <c r="D199">
+        <v>17.617000579833984</v>
+      </c>
+      <c r="E199">
+        <v>1.0360000133514404</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>3.8940000534057617</v>
+      </c>
+      <c r="B200">
+        <v>3.7019999027252197</v>
+      </c>
+      <c r="C200">
+        <v>11.107000350952148</v>
+      </c>
+      <c r="D200">
+        <v>18.104999542236328</v>
+      </c>
+      <c r="E200">
+        <v>0.91699999570846558</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>3.4609999656677246</v>
+      </c>
+      <c r="B201">
+        <v>3.7300000190734863</v>
+      </c>
+      <c r="C201">
+        <v>12.059000015258789</v>
+      </c>
+      <c r="D201">
+        <v>18.083999633789062</v>
+      </c>
+      <c r="E201">
+        <v>0.63599997758865356</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>3.8039999008178711</v>
+      </c>
+      <c r="B202">
+        <v>3.9110000133514404</v>
+      </c>
+      <c r="C202">
+        <v>10.824000358581543</v>
+      </c>
+      <c r="D202">
+        <v>18.447999954223633</v>
+      </c>
+      <c r="E202">
+        <v>0.68800002336502075</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>3.2880001068115234</v>
+      </c>
+      <c r="B203">
+        <v>4.0710000991821289</v>
+      </c>
+      <c r="C203">
+        <v>13.923000335693359</v>
+      </c>
+      <c r="D203">
+        <v>17.674999237060547</v>
+      </c>
+      <c r="E203">
+        <v>1.3320000171661377</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>3.7060000896453857</v>
+      </c>
+      <c r="B204">
+        <v>3.9059998989105225</v>
+      </c>
+      <c r="C204">
+        <v>11.105999946594238</v>
+      </c>
+      <c r="D204">
+        <v>17.833999633789062</v>
+      </c>
+      <c r="E204">
+        <v>0.66900002956390381</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>3.809999942779541</v>
+      </c>
+      <c r="B205">
+        <v>3.4040000438690186</v>
+      </c>
+      <c r="C205">
+        <v>8.5340003967285156</v>
+      </c>
+      <c r="D205">
+        <v>16.930999755859375</v>
+      </c>
+      <c r="E205">
+        <v>0.83300000429153442</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>3.7809998989105225</v>
+      </c>
+      <c r="B206">
+        <v>3.500999927520752</v>
+      </c>
+      <c r="C206">
+        <v>11.857000350952148</v>
+      </c>
+      <c r="D206">
+        <v>18.281000137329102</v>
+      </c>
+      <c r="E206">
+        <v>0.89099997282028198</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>3.4930000305175781</v>
+      </c>
+      <c r="B207">
+        <v>3.4800000190734863</v>
+      </c>
+      <c r="C207">
+        <v>10.279999732971191</v>
+      </c>
+      <c r="D207">
+        <v>15.414999961853027</v>
+      </c>
+      <c r="E207">
+        <v>0.11999999731779099</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>3.4309999942779541</v>
+      </c>
+      <c r="B208">
+        <v>3.6800000667572021</v>
+      </c>
+      <c r="C208">
+        <v>13.118000030517578</v>
+      </c>
+      <c r="D208">
+        <v>17.621999740600586</v>
+      </c>
+      <c r="E208">
+        <v>0.57099997997283936</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>3.5510001182556152</v>
+      </c>
+      <c r="B209">
+        <v>3.7230000495910645</v>
+      </c>
+      <c r="C209">
+        <v>11.369000434875488</v>
+      </c>
+      <c r="D209">
+        <v>18.408000946044922</v>
+      </c>
+      <c r="E209">
+        <v>0.67299997806549072</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>3.6359999179840088</v>
+      </c>
+      <c r="B210">
+        <v>3.7279999256134033</v>
+      </c>
+      <c r="C210">
+        <v>9.2959995269775391</v>
+      </c>
+      <c r="D210">
+        <v>17.53700065612793</v>
+      </c>
+      <c r="E210">
+        <v>0.460999995470047</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>3.6979999542236328</v>
+      </c>
+      <c r="B211">
+        <v>3.3819999694824219</v>
+      </c>
+      <c r="C211">
+        <v>9.6459999084472656</v>
+      </c>
+      <c r="D211">
+        <v>18.788000106811523</v>
+      </c>
+      <c r="E211">
+        <v>1.2220000028610229</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>3.1070001125335693</v>
+      </c>
+      <c r="B212">
+        <v>4.435999870300293</v>
+      </c>
+      <c r="C212">
+        <v>13.949000358581543</v>
+      </c>
+      <c r="D212">
+        <v>18.023000717163086</v>
+      </c>
+      <c r="E212">
+        <v>0.98199999332427979</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>3.8810000419616699</v>
+      </c>
+      <c r="B213">
+        <v>3.2560000419616699</v>
+      </c>
+      <c r="C213">
+        <v>10.526000022888184</v>
+      </c>
+      <c r="D213">
+        <v>17.552000045776367</v>
+      </c>
+      <c r="E213">
+        <v>0.12399999797344208</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>3.7009999752044678</v>
+      </c>
+      <c r="B214">
+        <v>3.7139999866485596</v>
+      </c>
+      <c r="C214">
+        <v>11.390000343322754</v>
+      </c>
+      <c r="D214">
+        <v>16.856000900268555</v>
+      </c>
+      <c r="E214">
+        <v>0.69300001859664917</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>3.6719999313354492</v>
+      </c>
+      <c r="B215">
+        <v>3.4440000057220459</v>
+      </c>
+      <c r="C215">
+        <v>11.506999969482422</v>
+      </c>
+      <c r="D215">
+        <v>17.89900016784668</v>
+      </c>
+      <c r="E215">
+        <v>0.82700002193450928</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>3.627000093460083</v>
+      </c>
+      <c r="B216">
+        <v>3.7039999961853027</v>
+      </c>
+      <c r="C216">
+        <v>9.5989999771118164</v>
+      </c>
+      <c r="D216">
+        <v>17.344999313354492</v>
+      </c>
+      <c r="E216">
+        <v>0.9660000205039978</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>3.5490000247955322</v>
+      </c>
+      <c r="B217">
+        <v>3.5529999732971191</v>
+      </c>
+      <c r="C217">
+        <v>9.2899999618530273</v>
+      </c>
+      <c r="D217">
+        <v>16.58799934387207</v>
+      </c>
+      <c r="E217">
+        <v>0.92400002479553223</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>3.7039999961853027</v>
+      </c>
+      <c r="B218">
+        <v>3.5499999523162842</v>
+      </c>
+      <c r="C218">
+        <v>11.097999572753906</v>
+      </c>
+      <c r="D218">
+        <v>17.996999740600586</v>
+      </c>
+      <c r="E218">
+        <v>0.79199999570846558</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>3.2339999675750732</v>
+      </c>
+      <c r="B219">
+        <v>3.7200000286102295</v>
+      </c>
+      <c r="C219">
+        <v>10.034000396728516</v>
+      </c>
+      <c r="D219">
+        <v>17.160999298095703</v>
+      </c>
+      <c r="E219">
+        <v>0.67799997329711914</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>3.5280001163482666</v>
+      </c>
+      <c r="B220">
+        <v>3.4460000991821289</v>
+      </c>
+      <c r="C220">
+        <v>9.8929996490478516</v>
+      </c>
+      <c r="D220">
+        <v>18.194000244140625</v>
+      </c>
+      <c r="E220">
+        <v>0.63400000333786011</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>3.3829998970031738</v>
+      </c>
+      <c r="B221">
+        <v>3.7639999389648438</v>
+      </c>
+      <c r="C221">
+        <v>12.951999664306641</v>
+      </c>
+      <c r="D221">
+        <v>17.73699951171875</v>
+      </c>
+      <c r="E221">
+        <v>1.3630000352859497</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="B222">
+        <v>3.7300000190734863</v>
+      </c>
+      <c r="C222">
+        <v>11.876999855041504</v>
+      </c>
+      <c r="D222">
+        <v>18.006999969482422</v>
+      </c>
+      <c r="E222">
+        <v>0.61000001430511475</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>3.7720000743865967</v>
+      </c>
+      <c r="B223">
+        <v>3.4079999923706055</v>
+      </c>
+      <c r="C223">
+        <v>9.7519998550415039</v>
+      </c>
+      <c r="D223">
+        <v>15.888999938964844</v>
+      </c>
+      <c r="E223">
+        <v>0.88999998569488525</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>3.5810000896453857</v>
+      </c>
+      <c r="B224">
+        <v>3.8650000095367432</v>
+      </c>
+      <c r="C224">
+        <v>10.494999885559082</v>
+      </c>
+      <c r="D224">
+        <v>18.010000228881836</v>
+      </c>
+      <c r="E224">
+        <v>0.77899998426437378</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>2.996999979019165</v>
+      </c>
+      <c r="B225">
+        <v>4.0069999694824219</v>
+      </c>
+      <c r="C225">
+        <v>12.069000244140625</v>
+      </c>
+      <c r="D225">
+        <v>17.472999572753906</v>
+      </c>
+      <c r="E225">
+        <v>0.34999999403953552</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>3.7730000019073486</v>
+      </c>
+      <c r="B226">
+        <v>3.4300000667572021</v>
+      </c>
+      <c r="C226">
+        <v>11.345999717712402</v>
+      </c>
+      <c r="D226">
+        <v>17.809000015258789</v>
+      </c>
+      <c r="E226">
+        <v>0.79100000858306885</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>3.624000072479248</v>
+      </c>
+      <c r="B227">
+        <v>3.6310000419616699</v>
+      </c>
+      <c r="C227">
+        <v>9.0590000152587891</v>
+      </c>
+      <c r="D227">
+        <v>15.913000106811523</v>
+      </c>
+      <c r="E227">
+        <v>0.49200001358985901</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>3.4030001163482666</v>
+      </c>
+      <c r="B228">
+        <v>3.6840000152587891</v>
+      </c>
+      <c r="C228">
+        <v>12.973999977111816</v>
+      </c>
+      <c r="D228">
+        <v>17.878000259399414</v>
+      </c>
+      <c r="E228">
+        <v>0.99400001764297485</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>3.7149999141693115</v>
+      </c>
+      <c r="B229">
+        <v>3.625</v>
+      </c>
+      <c r="C229">
+        <v>11.194000244140625</v>
+      </c>
+      <c r="D229">
+        <v>18.614999771118164</v>
+      </c>
+      <c r="E229">
+        <v>0.65200001001358032</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>3.2000000476837158</v>
+      </c>
+      <c r="B230">
+        <v>3.8599998950958252</v>
+      </c>
+      <c r="C230">
+        <v>12.232999801635742</v>
+      </c>
+      <c r="D230">
+        <v>19.489999771118164</v>
+      </c>
+      <c r="E230">
+        <v>0.89899998903274536</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>3.6180000305175781</v>
+      </c>
+      <c r="B231">
+        <v>3.7630000114440918</v>
+      </c>
+      <c r="C231">
+        <v>12.227999687194824</v>
+      </c>
+      <c r="D231">
+        <v>17.437999725341797</v>
+      </c>
+      <c r="E231">
+        <v>0.73100000619888306</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>3.6559998989105225</v>
+      </c>
+      <c r="B232">
+        <v>3.4830000400543213</v>
+      </c>
+      <c r="C232">
+        <v>11.46399974822998</v>
+      </c>
+      <c r="D232">
+        <v>16.740999221801758</v>
+      </c>
+      <c r="E232">
+        <v>0.73799997568130493</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>3.4189999103546143</v>
+      </c>
+      <c r="B233">
+        <v>3.621999979019165</v>
+      </c>
+      <c r="C233">
+        <v>13.333000183105469</v>
+      </c>
+      <c r="D233">
+        <v>18.450000762939453</v>
+      </c>
+      <c r="E233">
+        <v>1.0499999523162842</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>3.5889999866485596</v>
+      </c>
+      <c r="B234">
+        <v>3.4700000286102295</v>
+      </c>
+      <c r="C234">
+        <v>12.230999946594238</v>
+      </c>
+      <c r="D234">
+        <v>16.658000946044922</v>
+      </c>
+      <c r="E234">
+        <v>0.7720000147819519</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>3.7200000286102295</v>
+      </c>
+      <c r="B235">
+        <v>3.7639999389648438</v>
+      </c>
+      <c r="C235">
+        <v>12.149999618530273</v>
+      </c>
+      <c r="D235">
+        <v>17.381000518798828</v>
+      </c>
+      <c r="E235">
+        <v>0.72699999809265137</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>3.8159999847412109</v>
+      </c>
+      <c r="B236">
+        <v>3.2409999370574951</v>
+      </c>
+      <c r="C236">
+        <v>13.824000358581543</v>
+      </c>
+      <c r="D236">
+        <v>18.100000381469727</v>
+      </c>
+      <c r="E236">
+        <v>0.84899997711181641</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>3.7390000820159912</v>
+      </c>
+      <c r="B237">
+        <v>4.059999942779541</v>
+      </c>
+      <c r="C237">
+        <v>11.347999572753906</v>
+      </c>
+      <c r="D237">
+        <v>16.854999542236328</v>
+      </c>
+      <c r="E237">
+        <v>1.0080000162124634</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>3.5490000247955322</v>
+      </c>
+      <c r="B238">
+        <v>3.9700000286102295</v>
+      </c>
+      <c r="C238">
+        <v>13.22599983215332</v>
+      </c>
+      <c r="D238">
+        <v>17.990999221801758</v>
+      </c>
+      <c r="E238">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>3.4939999580383301</v>
+      </c>
+      <c r="B239">
+        <v>3.8259999752044678</v>
+      </c>
+      <c r="C239">
+        <v>11.907999992370605</v>
+      </c>
+      <c r="D239">
+        <v>18.961000442504883</v>
+      </c>
+      <c r="E239">
+        <v>1.1720000505447388</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>3.7899999618530273</v>
+      </c>
+      <c r="B240">
+        <v>3.4839999675750732</v>
+      </c>
+      <c r="C240">
+        <v>8.1510000228881836</v>
+      </c>
+      <c r="D240">
+        <v>17.33799934387207</v>
+      </c>
+      <c r="E240">
+        <v>0.69800001382827759</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>3.4900000095367432</v>
+      </c>
+      <c r="B241">
+        <v>3.7019999027252197</v>
+      </c>
+      <c r="C241">
+        <v>12.27400016784668</v>
+      </c>
+      <c r="D241">
+        <v>18.027999877929688</v>
+      </c>
+      <c r="E241">
+        <v>0.75099998712539673</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>3.6800000667572021</v>
+      </c>
+      <c r="B242">
+        <v>3.6110000610351562</v>
+      </c>
+      <c r="C242">
+        <v>10.284000396728516</v>
+      </c>
+      <c r="D242">
+        <v>17.535999298095703</v>
+      </c>
+      <c r="E242">
+        <v>1.3040000200271606</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>3.496999979019165</v>
+      </c>
+      <c r="B243">
+        <v>3.7939999103546143</v>
+      </c>
+      <c r="C243">
+        <v>13.130999565124512</v>
+      </c>
+      <c r="D243">
+        <v>17.593999862670898</v>
+      </c>
+      <c r="E243">
+        <v>0.23299999535083771</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>3.5520000457763672</v>
+      </c>
+      <c r="B244">
+        <v>3.1459999084472656</v>
+      </c>
+      <c r="C244">
+        <v>9.4849996566772461</v>
+      </c>
+      <c r="D244">
+        <v>14.932000160217285</v>
+      </c>
+      <c r="E244">
+        <v>0.020999999716877937</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>3.3020000457763672</v>
+      </c>
+      <c r="B245">
+        <v>3.994999885559082</v>
+      </c>
+      <c r="C245">
+        <v>13.689000129699707</v>
+      </c>
+      <c r="D245">
+        <v>17.514999389648438</v>
+      </c>
+      <c r="E245">
+        <v>0.41699999570846558</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>3.3889999389648438</v>
+      </c>
+      <c r="B246">
+        <v>3.5959999561309814</v>
+      </c>
+      <c r="C246">
+        <v>11.953000068664551</v>
+      </c>
+      <c r="D246">
+        <v>17.277999877929688</v>
+      </c>
+      <c r="E246">
+        <v>0.62800002098083496</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>3.7750000953674316</v>
+      </c>
+      <c r="B247">
+        <v>3.7439999580383301</v>
+      </c>
+      <c r="C247">
+        <v>12.168999671936035</v>
+      </c>
+      <c r="D247">
+        <v>17.676000595092773</v>
+      </c>
+      <c r="E247">
+        <v>0.56000000238418579</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>3.372999906539917</v>
+      </c>
+      <c r="B248">
+        <v>3.9839999675750732</v>
+      </c>
+      <c r="C248">
+        <v>12.784000396728516</v>
+      </c>
+      <c r="D248">
+        <v>18.548000335693359</v>
+      </c>
+      <c r="E248">
+        <v>0.79799997806549072</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>3.5520000457763672</v>
+      </c>
+      <c r="B249">
+        <v>4.1110000610351562</v>
+      </c>
+      <c r="C249">
+        <v>13.470999717712402</v>
+      </c>
+      <c r="D249">
+        <v>17.795000076293945</v>
+      </c>
+      <c r="E249">
+        <v>0.92299997806549072</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>3.4440000057220459</v>
+      </c>
+      <c r="B250">
+        <v>3.7590000629425049</v>
+      </c>
+      <c r="C250">
+        <v>12.043999671936035</v>
+      </c>
+      <c r="D250">
+        <v>17.580999374389648</v>
+      </c>
+      <c r="E250">
+        <v>0.97100001573562622</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>3.6610000133514404</v>
+      </c>
+      <c r="B251">
+        <v>3.4289999008178711</v>
+      </c>
+      <c r="C251">
+        <v>10.720999717712402</v>
+      </c>
+      <c r="D251">
+        <v>17.158000946044922</v>
+      </c>
+      <c r="E251">
+        <v>1.0980000495910645</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>3.5969998836517334</v>
+      </c>
+      <c r="B252">
+        <v>3.7219998836517334</v>
+      </c>
+      <c r="C252">
+        <v>11.331999778747559</v>
+      </c>
+      <c r="D252">
+        <v>18.326999664306641</v>
+      </c>
+      <c r="E252">
+        <v>0.44100001454353333</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>3.5820000171661377</v>
+      </c>
+      <c r="B253">
+        <v>3.3550000190734863</v>
+      </c>
+      <c r="C253">
+        <v>7.6069998741149902</v>
+      </c>
+      <c r="D253">
+        <v>17.104000091552734</v>
+      </c>
+      <c r="E253">
+        <v>0.70800000429153442</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>3.2320001125335693</v>
+      </c>
+      <c r="B254">
+        <v>3.7039999961853027</v>
+      </c>
+      <c r="C254">
+        <v>10.562999725341797</v>
+      </c>
+      <c r="D254">
+        <v>15.48799991607666</v>
+      </c>
+      <c r="E254">
+        <v>0.17800000309944153</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>3.8510000705718994</v>
+      </c>
+      <c r="B255">
+        <v>3.5569999217987061</v>
+      </c>
+      <c r="C255">
+        <v>10.312999725341797</v>
+      </c>
+      <c r="D255">
+        <v>18.131999969482422</v>
+      </c>
+      <c r="E255">
+        <v>0.76999998092651367</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>3.5840001106262207</v>
+      </c>
+      <c r="B256">
+        <v>3.4869999885559082</v>
+      </c>
+      <c r="C256">
+        <v>11.383000373840332</v>
+      </c>
+      <c r="D256">
+        <v>16.763999938964844</v>
+      </c>
+      <c r="E256">
+        <v>0.57099997997283936</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>3.5690000057220459</v>
+      </c>
+      <c r="B257">
+        <v>3.6549999713897705</v>
+      </c>
+      <c r="C257">
+        <v>12.079999923706055</v>
+      </c>
+      <c r="D257">
+        <v>17.354999542236328</v>
+      </c>
+      <c r="E257">
+        <v>1.1430000066757202</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>3.4600000381469727</v>
+      </c>
+      <c r="B258">
+        <v>3.7950000762939453</v>
+      </c>
+      <c r="C258">
+        <v>13.704999923706055</v>
+      </c>
+      <c r="D258">
+        <v>18.450000762939453</v>
+      </c>
+      <c r="E258">
+        <v>1.1959999799728394</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>3.5339999198913574</v>
+      </c>
+      <c r="B259">
+        <v>3.7639999389648438</v>
+      </c>
+      <c r="C259">
+        <v>12.121999740600586</v>
+      </c>
+      <c r="D259">
+        <v>17.333000183105469</v>
+      </c>
+      <c r="E259">
+        <v>0.95899999141693115</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>3.559999942779541</v>
+      </c>
+      <c r="B260">
+        <v>3.4360001087188721</v>
+      </c>
+      <c r="C260">
+        <v>12.552000045776367</v>
+      </c>
+      <c r="D260">
+        <v>17.254999160766602</v>
+      </c>
+      <c r="E260">
+        <v>0.82099997997283936</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>3.7720000743865967</v>
+      </c>
+      <c r="B261">
+        <v>3.8059999942779541</v>
+      </c>
+      <c r="C261">
+        <v>10.468000411987305</v>
+      </c>
+      <c r="D261">
+        <v>17.086000442504883</v>
+      </c>
+      <c r="E261">
+        <v>1.0399999618530273</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>3.3840000629425049</v>
+      </c>
+      <c r="B262">
+        <v>3.8680000305175781</v>
+      </c>
+      <c r="C262">
+        <v>11.279999732971191</v>
+      </c>
+      <c r="D262">
+        <v>15.293000221252441</v>
+      </c>
+      <c r="E262">
+        <v>1.1990000009536743</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>3.1170001029968262</v>
+      </c>
+      <c r="B263">
+        <v>4.0780000686645508</v>
+      </c>
+      <c r="C263">
+        <v>14.468999862670898</v>
+      </c>
+      <c r="D263">
+        <v>17.017000198364258</v>
+      </c>
+      <c r="E263">
+        <v>0.58300000429153442</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>3.380000114440918</v>
+      </c>
+      <c r="B264">
+        <v>3.6809999942779541</v>
+      </c>
+      <c r="C264">
+        <v>12.744999885559082</v>
+      </c>
+      <c r="D264">
+        <v>17.927999496459961</v>
+      </c>
+      <c r="E264">
+        <v>0.74699997901916504</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>3.6730000972747803</v>
+      </c>
+      <c r="B265">
+        <v>3.8540000915527344</v>
+      </c>
+      <c r="C265">
+        <v>13.10200023651123</v>
+      </c>
+      <c r="D265">
+        <v>17.938999176025391</v>
+      </c>
+      <c r="E265">
+        <v>0.60199999809265137</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>3.6940000057220459</v>
+      </c>
+      <c r="B266">
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="C266">
+        <v>10.095000267028809</v>
+      </c>
+      <c r="D266">
+        <v>18.277999877929688</v>
+      </c>
+      <c r="E266">
+        <v>1.0659999847412109</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>3.1319999694824219</v>
+      </c>
+      <c r="B267">
+        <v>4.2109999656677246</v>
+      </c>
+      <c r="C267">
+        <v>14.180999755859375</v>
+      </c>
+      <c r="D267">
+        <v>17.768999099731445</v>
+      </c>
+      <c r="E267">
+        <v>0.59700000286102295</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>3.3829998970031738</v>
+      </c>
+      <c r="B268">
+        <v>3.7339999675750732</v>
+      </c>
+      <c r="C268">
+        <v>12.670999526977539</v>
+      </c>
+      <c r="D268">
+        <v>17.527000427246094</v>
+      </c>
+      <c r="E268">
+        <v>1.0110000371932983</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>3.5539999008178711</v>
+      </c>
+      <c r="B269">
+        <v>3.4360001087188721</v>
+      </c>
+      <c r="C269">
+        <v>11.906000137329102</v>
+      </c>
+      <c r="D269">
+        <v>15.131999969482422</v>
+      </c>
+      <c r="E269">
+        <v>0.43399998545646667</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>3.0209999084472656</v>
+      </c>
+      <c r="B270">
+        <v>4.5019998550415039</v>
+      </c>
+      <c r="C270">
+        <v>15.451000213623047</v>
+      </c>
+      <c r="D270">
+        <v>16.937999725341797</v>
+      </c>
+      <c r="E270">
+        <v>0.95499998331069946</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>3.7829999923706055</v>
+      </c>
+      <c r="B271">
+        <v>3.4330000877380371</v>
+      </c>
+      <c r="C271">
+        <v>12.909000396728516</v>
+      </c>
+      <c r="D271">
+        <v>18.361000061035156</v>
+      </c>
+      <c r="E271">
+        <v>0.95800000429153442</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>3.4170000553131104</v>
+      </c>
+      <c r="B272">
+        <v>3.5739998817443848</v>
+      </c>
+      <c r="C272">
+        <v>9.494999885559082</v>
+      </c>
+      <c r="D272">
+        <v>17.63800048828125</v>
+      </c>
+      <c r="E272">
+        <v>0.66500002145767212</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>3.2070000171661377</v>
+      </c>
+      <c r="B273">
+        <v>4.0799999237060547</v>
+      </c>
+      <c r="C273">
+        <v>12.901000022888184</v>
+      </c>
+      <c r="D273">
+        <v>15.36400032043457</v>
+      </c>
+      <c r="E273">
+        <v>0.45100000500679016</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>3.5109999179840088</v>
+      </c>
+      <c r="B274">
+        <v>3.7590000629425049</v>
+      </c>
+      <c r="C274">
+        <v>9.5819997787475586</v>
+      </c>
+      <c r="D274">
+        <v>14.894000053405762</v>
+      </c>
+      <c r="E274">
+        <v>0.43299999833106995</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>3.2179999351501465</v>
+      </c>
+      <c r="B275">
+        <v>4.070000171661377</v>
+      </c>
+      <c r="C275">
+        <v>15.909000396728516</v>
+      </c>
+      <c r="D275">
+        <v>17.604999542236328</v>
+      </c>
+      <c r="E275">
+        <v>0.90499997138977051</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>3.684999942779541</v>
+      </c>
+      <c r="B276">
+        <v>3.5280001163482666</v>
+      </c>
+      <c r="C276">
+        <v>10.901000022888184</v>
+      </c>
+      <c r="D276">
+        <v>14.805000305175781</v>
+      </c>
+      <c r="E276">
+        <v>0.76800000667572021</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>2.9670000076293945</v>
+      </c>
+      <c r="B277">
+        <v>4.2979998588562012</v>
+      </c>
+      <c r="C277">
+        <v>15.284000396728516</v>
+      </c>
+      <c r="D277">
+        <v>17.670000076293945</v>
+      </c>
+      <c r="E277">
+        <v>0.61400002241134644</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>3.6289999485015869</v>
+      </c>
+      <c r="B278">
+        <v>3.5690000057220459</v>
+      </c>
+      <c r="C278">
+        <v>10.508999824523926</v>
+      </c>
+      <c r="D278">
+        <v>17.007999420166016</v>
+      </c>
+      <c r="E278">
+        <v>0.55000001192092896</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>3.5690000057220459</v>
+      </c>
+      <c r="B279">
+        <v>3.874000072479248</v>
+      </c>
+      <c r="C279">
+        <v>12.946999549865723</v>
+      </c>
+      <c r="D279">
+        <v>17.777000427246094</v>
+      </c>
+      <c r="E279">
+        <v>0.77999997138977051</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>3.5550000667572021</v>
+      </c>
+      <c r="B280">
+        <v>3.380000114440918</v>
+      </c>
+      <c r="C280">
+        <v>13.444000244140625</v>
+      </c>
+      <c r="D280">
+        <v>17.729999542236328</v>
+      </c>
+      <c r="E280">
+        <v>0.56199997663497925</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>3.2049999237060547</v>
+      </c>
+      <c r="B281">
+        <v>3.8559999465942383</v>
+      </c>
+      <c r="C281">
+        <v>12.152999877929688</v>
+      </c>
+      <c r="D281">
+        <v>17.091999053955078</v>
+      </c>
+      <c r="E281">
+        <v>0.8410000205039978</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>3.4440000057220459</v>
+      </c>
+      <c r="B282">
+        <v>3.6679999828338623</v>
+      </c>
+      <c r="C282">
+        <v>12.23900032043457</v>
+      </c>
+      <c r="D282">
+        <v>17.568000793457031</v>
+      </c>
+      <c r="E282">
+        <v>1.215999960899353</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>3.2750000953674316</v>
+      </c>
+      <c r="B283">
         <v>3.622999906539917</v>
       </c>
-      <c r="D198">
-        <v>11.368000030517578</v>
-      </c>
-      <c r="E198">
-        <v>17.072999954223633</v>
-      </c>
-      <c r="F198">
-        <v>0.81699997186660767</v>
+      <c r="C283">
+        <v>12.704000473022461</v>
+      </c>
+      <c r="D283">
+        <v>16.593999862670898</v>
+      </c>
+      <c r="E283">
+        <v>0.63899999856948853</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>3.2929999828338623</v>
+      </c>
+      <c r="B284">
+        <v>3.9670000076293945</v>
+      </c>
+      <c r="C284">
+        <v>15.644000053405762</v>
+      </c>
+      <c r="D284">
+        <v>17.232999801635742</v>
+      </c>
+      <c r="E284">
+        <v>1.0360000133514404</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>3.5</v>
+      </c>
+      <c r="B285">
+        <v>4.0240001678466797</v>
+      </c>
+      <c r="C285">
+        <v>11.996999740600586</v>
+      </c>
+      <c r="D285">
+        <v>17.89900016784668</v>
+      </c>
+      <c r="E285">
+        <v>0.83799999952316284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>3.6480000019073486</v>
+      </c>
+      <c r="B286">
+        <v>3.9769999980926514</v>
+      </c>
+      <c r="C286">
+        <v>11.027999877929688</v>
+      </c>
+      <c r="D286">
+        <v>17.374000549316406</v>
+      </c>
+      <c r="E286">
+        <v>0.93900001049041748</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>3.4479999542236328</v>
+      </c>
+      <c r="B287">
+        <v>3.4619998931884766</v>
+      </c>
+      <c r="C287">
+        <v>14.204000473022461</v>
+      </c>
+      <c r="D287">
+        <v>17.009000778198242</v>
+      </c>
+      <c r="E287">
+        <v>0.85699999332427979</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>3.4319999217987061</v>
+      </c>
+      <c r="B288">
+        <v>3.9470000267028809</v>
+      </c>
+      <c r="C288">
+        <v>11.909999847412109</v>
+      </c>
+      <c r="D288">
+        <v>17.582000732421875</v>
+      </c>
+      <c r="E288">
+        <v>0.94800001382827759</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>3.4279999732971191</v>
+      </c>
+      <c r="B289">
+        <v>3.5920000076293945</v>
+      </c>
+      <c r="C289">
+        <v>13.270999908447266</v>
+      </c>
+      <c r="D289">
+        <v>17.561000823974609</v>
+      </c>
+      <c r="E289">
+        <v>0.82800000905990601</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>3.565000057220459</v>
+      </c>
+      <c r="B290">
+        <v>4.0370001792907715</v>
+      </c>
+      <c r="C290">
+        <v>11.755000114440918</v>
+      </c>
+      <c r="D290">
+        <v>17.384000778198242</v>
+      </c>
+      <c r="E290">
+        <v>0.63099998235702515</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>3.4409999847412109</v>
+      </c>
+      <c r="B291">
+        <v>3.5360000133514404</v>
+      </c>
+      <c r="C291">
+        <v>10.911999702453613</v>
+      </c>
+      <c r="D291">
+        <v>17.902000427246094</v>
+      </c>
+      <c r="E291">
+        <v>0.46599999070167542</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>3.6129999160766602</v>
+      </c>
+      <c r="B292">
+        <v>3.7090001106262207</v>
+      </c>
+      <c r="C292">
+        <v>10.49899959564209</v>
+      </c>
+      <c r="D292">
+        <v>17.822000503540039</v>
+      </c>
+      <c r="E292">
+        <v>0.57499998807907104</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>3.5039999485015869</v>
+      </c>
+      <c r="B293">
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="C293">
+        <v>14.310000419616699</v>
+      </c>
+      <c r="D293">
+        <v>17.517999649047852</v>
+      </c>
+      <c r="E293">
+        <v>0.88400000333786011</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>3.3849999904632568</v>
+      </c>
+      <c r="B294">
+        <v>4.0689997673034668</v>
+      </c>
+      <c r="C294">
+        <v>12.802000045776367</v>
+      </c>
+      <c r="D294">
+        <v>17.601999282836914</v>
+      </c>
+      <c r="E294">
+        <v>0.74800002574920654</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>3.3010001182556152</v>
+      </c>
+      <c r="B295">
+        <v>3.9470000267028809</v>
+      </c>
+      <c r="C295">
+        <v>13.810999870300293</v>
+      </c>
+      <c r="D295">
+        <v>18.215000152587891</v>
+      </c>
+      <c r="E295">
+        <v>0.26499998569488525</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>3.4560000896453857</v>
+      </c>
+      <c r="B296">
+        <v>3.9530000686645508</v>
+      </c>
+      <c r="C296">
+        <v>13.951999664306641</v>
+      </c>
+      <c r="D296">
+        <v>17.471000671386719</v>
+      </c>
+      <c r="E296">
+        <v>1.0970000028610229</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>3.5999999046325684</v>
+      </c>
+      <c r="B297">
+        <v>3.6080000400543213</v>
+      </c>
+      <c r="C297">
+        <v>11.305999755859375</v>
+      </c>
+      <c r="D297">
+        <v>17.305999755859375</v>
+      </c>
+      <c r="E297">
+        <v>0.80299997329711914</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>3.6099998950958252</v>
+      </c>
+      <c r="B298">
+        <v>3.5209999084472656</v>
+      </c>
+      <c r="C298">
+        <v>11.069999694824219</v>
+      </c>
+      <c r="D298">
+        <v>18.264999389648438</v>
+      </c>
+      <c r="E298">
+        <v>1.0720000267028809</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>3.3039999008178711</v>
+      </c>
+      <c r="B299">
+        <v>3.9179999828338623</v>
+      </c>
+      <c r="C299">
+        <v>14.293000221252441</v>
+      </c>
+      <c r="D299">
+        <v>17.753000259399414</v>
+      </c>
+      <c r="E299">
+        <v>0.6119999885559082</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>3.3910000324249268</v>
+      </c>
+      <c r="B300">
+        <v>3.4030001163482666</v>
+      </c>
+      <c r="C300">
+        <v>10.546999931335449</v>
+      </c>
+      <c r="D300">
+        <v>16.805999755859375</v>
+      </c>
+      <c r="E300">
+        <v>0.48399999737739563</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>3.0880000591278076</v>
+      </c>
+      <c r="B301">
+        <v>4.3130002021789551</v>
+      </c>
+      <c r="C301">
+        <v>14.38700008392334</v>
+      </c>
+      <c r="D301">
+        <v>16.686000823974609</v>
+      </c>
+      <c r="E301">
+        <v>1.1499999761581421</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>3.2060000896453857</v>
+      </c>
+      <c r="B302">
+        <v>3.9179999828338623</v>
+      </c>
+      <c r="C302">
+        <v>12.234999656677246</v>
+      </c>
+      <c r="D302">
+        <v>17.760000228881836</v>
+      </c>
+      <c r="E302">
+        <v>0.90299999713897705</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>3.4519999027252197</v>
+      </c>
+      <c r="B303">
+        <v>3.9059998989105225</v>
+      </c>
+      <c r="C303">
+        <v>12.531999588012695</v>
+      </c>
+      <c r="D303">
+        <v>17.174999237060547</v>
+      </c>
+      <c r="E303">
+        <v>1.1959999799728394</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>3.5989999771118164</v>
+      </c>
+      <c r="B304">
+        <v>3.7990000247955322</v>
+      </c>
+      <c r="C304">
+        <v>10.293999671936035</v>
+      </c>
+      <c r="D304">
+        <v>17.892000198364258</v>
+      </c>
+      <c r="E304">
+        <v>0.71700000762939453</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>3.8039999008178711</v>
+      </c>
+      <c r="B305">
+        <v>3.5290000438690186</v>
+      </c>
+      <c r="C305">
+        <v>10.777000427246094</v>
+      </c>
+      <c r="D305">
+        <v>17.267999649047852</v>
+      </c>
+      <c r="E305">
+        <v>0.64200001955032349</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>3.5069999694824219</v>
+      </c>
+      <c r="B306">
+        <v>3.7320001125335693</v>
+      </c>
+      <c r="C306">
+        <v>12.552000045776367</v>
+      </c>
+      <c r="D306">
+        <v>16.207000732421875</v>
+      </c>
+      <c r="E306">
+        <v>0.7929999828338623</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>3.4530000686645508</v>
+      </c>
+      <c r="B307">
+        <v>3.9219999313354492</v>
+      </c>
+      <c r="C307">
+        <v>11.515000343322754</v>
+      </c>
+      <c r="D307">
+        <v>17.486000061035156</v>
+      </c>
+      <c r="E307">
+        <v>0.8529999852180481</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>3.5320000648498535</v>
+      </c>
+      <c r="B308">
+        <v>3.8510000705718994</v>
+      </c>
+      <c r="C308">
+        <v>13.180000305175781</v>
+      </c>
+      <c r="D308">
+        <v>17.190000534057617</v>
+      </c>
+      <c r="E308">
+        <v>1.0839999914169312</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>3.3589999675750732</v>
+      </c>
+      <c r="B309">
+        <v>3.9240000247955322</v>
+      </c>
+      <c r="C309">
+        <v>12.664999961853027</v>
+      </c>
+      <c r="D309">
+        <v>17.698999404907227</v>
+      </c>
+      <c r="E309">
+        <v>1.0390000343322754</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>3.371999979019165</v>
+      </c>
+      <c r="B310">
+        <v>3.9920001029968262</v>
+      </c>
+      <c r="C310">
+        <v>11.043000221252441</v>
+      </c>
+      <c r="D310">
+        <v>17.979000091552734</v>
+      </c>
+      <c r="E310">
+        <v>0.71700000762939453</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>3.4930000305175781</v>
+      </c>
+      <c r="B311">
+        <v>4.1810002326965332</v>
+      </c>
+      <c r="C311">
+        <v>11.972999572753906</v>
+      </c>
+      <c r="D311">
+        <v>17.167999267578125</v>
+      </c>
+      <c r="E311">
+        <v>0.97299998998641968</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>3.7880001068115234</v>
+      </c>
+      <c r="B312">
+        <v>3.3510000705718994</v>
+      </c>
+      <c r="C312">
+        <v>7.8880000114440918</v>
+      </c>
+      <c r="D312">
+        <v>16.775999069213867</v>
+      </c>
+      <c r="E312">
+        <v>0.460999995470047</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>3.5499999523162842</v>
+      </c>
+      <c r="B313">
+        <v>3.8580000400543213</v>
+      </c>
+      <c r="C313">
+        <v>11.663000106811523</v>
+      </c>
+      <c r="D313">
+        <v>17.25</v>
+      </c>
+      <c r="E313">
+        <v>0.4830000102519989</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>3.2620000839233398</v>
+      </c>
+      <c r="B314">
+        <v>4.2210001945495605</v>
+      </c>
+      <c r="C314">
+        <v>14.326000213623047</v>
+      </c>
+      <c r="D314">
+        <v>17.444999694824219</v>
+      </c>
+      <c r="E314">
+        <v>0.95800000429153442</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>2.8380000591278076</v>
+      </c>
+      <c r="B315">
+        <v>4.1430001258850098</v>
+      </c>
+      <c r="C315">
+        <v>14.727999687194824</v>
+      </c>
+      <c r="D315">
+        <v>16.893999099731445</v>
+      </c>
+      <c r="E315">
+        <v>0.73100000619888306</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>3.6840000152587891</v>
+      </c>
+      <c r="B316">
+        <v>3.7699999809265137</v>
+      </c>
+      <c r="C316">
+        <v>12.128999710083008</v>
+      </c>
+      <c r="D316">
+        <v>17.833999633789062</v>
+      </c>
+      <c r="E316">
+        <v>0.62599998712539673</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>3.6059999465942383</v>
+      </c>
+      <c r="B317">
+        <v>4.0349998474121094</v>
+      </c>
+      <c r="C317">
+        <v>9.7690000534057617</v>
+      </c>
+      <c r="D317">
+        <v>17.190999984741211</v>
+      </c>
+      <c r="E317">
+        <v>1.4119999408721924</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>3.746999979019165</v>
+      </c>
+      <c r="B318">
+        <v>4.3969998359680176</v>
+      </c>
+      <c r="C318">
+        <v>10.880000114440918</v>
+      </c>
+      <c r="D318">
+        <v>16.938999176025391</v>
+      </c>
+      <c r="E318">
+        <v>0.66399997472763062</v>
       </c>
     </row>
   </sheetData>
